--- a/data/raw/BANCO CAIXA - 2023.xlsx
+++ b/data/raw/BANCO CAIXA - 2023.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScodeWorkspace\P5\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_CODE (DEVS)\CESAR_SCHOOL\PLURII_ECEEL\plurii-eceel\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48A0D3-CC52-4A15-90DB-EF8F4A6DDE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4251E27F-DC8D-444D-A663-4E19949EF482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="YTSutPJYKvXdMU4QRUkzduVPv2N4YVufrzyNbZ7iJ7I="/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="864">
   <si>
     <t>Extrato        CAIXA ECONÔMICA FEDERAL  -  JANEIRO  2023</t>
   </si>
@@ -2512,18 +2521,124 @@
   </si>
   <si>
     <t>11.539,16 C</t>
+  </si>
+  <si>
+    <t>Despesa com pessoal</t>
+  </si>
+  <si>
+    <t>Alimentação (VR VA)</t>
+  </si>
+  <si>
+    <t>Transporte (VT)</t>
+  </si>
+  <si>
+    <t>Despesas financeiras</t>
+  </si>
+  <si>
+    <t>Despesas com cobrança</t>
+  </si>
+  <si>
+    <t>FGTS</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>Pró labore</t>
+  </si>
+  <si>
+    <t>Despesas administrativas</t>
+  </si>
+  <si>
+    <t>Contabilidade</t>
+  </si>
+  <si>
+    <t>Aviso prévio / Multa rescisória</t>
+  </si>
+  <si>
+    <t>Receita com serviços</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Despesa com serviços</t>
+  </si>
+  <si>
+    <t>Mão de obra</t>
+  </si>
+  <si>
+    <t>Outras</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>Aluguel imóvel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesas tributárias </t>
+  </si>
+  <si>
+    <t>Outras entradas</t>
+  </si>
+  <si>
+    <t>Receita não identificada</t>
+  </si>
+  <si>
+    <t>CONTA</t>
+  </si>
+  <si>
+    <t>SUBCONTA</t>
+  </si>
+  <si>
+    <t>Fresnomaq</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>CIEE (Estagiario)</t>
+  </si>
+  <si>
+    <t>Despesa com produtos</t>
+  </si>
+  <si>
+    <t>Materiais de Consumo</t>
+  </si>
+  <si>
+    <t>Energia</t>
+  </si>
+  <si>
+    <t>Assistência médica</t>
+  </si>
+  <si>
+    <t>Telefonia (Celular, Fixo, Internet)</t>
+  </si>
+  <si>
+    <t>Veiculos</t>
+  </si>
+  <si>
+    <t>Cartório</t>
+  </si>
+  <si>
+    <t>13º salário</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2785,6 +2900,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2818,7 +2950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -3154,11 +3286,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3676,9 +3837,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3891,29 +4075,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="I364" sqref="I364:J386"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="66.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="66.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.25" customHeight="1">
+    <row r="1" spans="2:13" ht="14.25" customHeight="1">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:11" ht="16.5" customHeight="1">
+    <row r="2" spans="2:13" ht="16.5" customHeight="1">
       <c r="B2" s="190" t="s">
         <v>0</v>
       </c>
@@ -3923,11 +4107,13 @@
       <c r="F2" s="193"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.25" customHeight="1">
+    <row r="3" spans="2:13" ht="14.25" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3949,14 +4135,20 @@
       <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" t="s">
+        <v>851</v>
+      </c>
+      <c r="J3" t="s">
+        <v>852</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4">
+      <c r="M3" s="4">
         <v>1303</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1">
+    <row r="4" spans="2:13" ht="14.25" customHeight="1">
       <c r="B4" s="11"/>
       <c r="C4" s="12">
         <v>0</v>
@@ -3972,8 +4164,10 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" customHeight="1">
       <c r="B5" s="17">
         <v>44930</v>
       </c>
@@ -3993,8 +4187,14 @@
       <c r="H5" s="22">
         <v>780</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I5" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J5" s="203" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="14.25" customHeight="1">
       <c r="B6" s="23">
         <v>44930</v>
       </c>
@@ -4014,8 +4214,14 @@
       <c r="H6" s="28">
         <v>464.94</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I6" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J6" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="14.25" customHeight="1">
       <c r="B7" s="17">
         <v>44930</v>
       </c>
@@ -4035,8 +4241,14 @@
       <c r="H7" s="22">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I7" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J7" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="14.25" customHeight="1">
       <c r="B8" s="32">
         <v>44930</v>
       </c>
@@ -4056,8 +4268,14 @@
       <c r="H8" s="37">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I8" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J8" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="14.25" customHeight="1">
       <c r="B9" s="23">
         <v>44931</v>
       </c>
@@ -4077,8 +4295,14 @@
       <c r="H9" s="37">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I9" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J9" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="14.25" customHeight="1">
       <c r="B10" s="23">
         <v>44932</v>
       </c>
@@ -4098,8 +4322,14 @@
       <c r="H10" s="37">
         <v>1361.51</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I10" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J10" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="14.25" customHeight="1">
       <c r="B11" s="17">
         <v>44932</v>
       </c>
@@ -4119,8 +4349,14 @@
       <c r="H11" s="22">
         <v>569.79</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I11" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J11" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="14.25" customHeight="1">
       <c r="B12" s="23">
         <v>44932</v>
       </c>
@@ -4140,8 +4376,14 @@
       <c r="H12" s="37">
         <v>1298.6400000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I12" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J12" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="14.25" customHeight="1">
       <c r="B13" s="17">
         <v>44932</v>
       </c>
@@ -4161,8 +4403,14 @@
       <c r="H13" s="22">
         <v>1389.82</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I13" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J13" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="14.25" customHeight="1">
       <c r="B14" s="23">
         <v>44932</v>
       </c>
@@ -4182,8 +4430,14 @@
       <c r="H14" s="37">
         <v>1024.23</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I14" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J14" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="14.25" customHeight="1">
       <c r="B15" s="17">
         <v>44932</v>
       </c>
@@ -4203,8 +4457,14 @@
       <c r="H15" s="22">
         <v>1078.68</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1">
+      <c r="I15" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J15" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="14.25" customHeight="1">
       <c r="B16" s="32">
         <v>44932</v>
       </c>
@@ -4224,8 +4484,14 @@
       <c r="H16" s="28">
         <v>1078.68</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I16" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J16" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1">
       <c r="B17" s="40">
         <v>44935</v>
       </c>
@@ -4245,8 +4511,14 @@
       <c r="H17" s="22">
         <v>769.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I17" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J17" s="203" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1">
       <c r="B18" s="23">
         <v>44935</v>
       </c>
@@ -4266,8 +4538,14 @@
       <c r="H18" s="37">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I18" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J18" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1">
       <c r="B19" s="40">
         <v>44935</v>
       </c>
@@ -4287,8 +4565,14 @@
       <c r="H19" s="22">
         <v>252.02</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I19" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J19" s="203" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1">
       <c r="B20" s="40">
         <v>44936</v>
       </c>
@@ -4308,8 +4592,14 @@
         <v>4469.55</v>
       </c>
       <c r="H20" s="31"/>
-    </row>
-    <row r="21" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I20" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J20" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="14.25" customHeight="1">
       <c r="B21" s="23">
         <v>44936</v>
       </c>
@@ -4329,8 +4619,14 @@
       <c r="H21" s="37">
         <v>575.29999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I21" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J21" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="14.25" customHeight="1">
       <c r="B22" s="17">
         <v>44939</v>
       </c>
@@ -4350,8 +4646,14 @@
       <c r="H22" s="22">
         <v>1286.0899999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I22" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J22" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="14.25" customHeight="1">
       <c r="B23" s="23">
         <v>44939</v>
       </c>
@@ -4371,8 +4673,14 @@
       <c r="H23" s="37">
         <v>466.92</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I23" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J23" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="14.25" customHeight="1">
       <c r="B24" s="17">
         <v>44944</v>
       </c>
@@ -4392,8 +4700,14 @@
         <v>13473.81</v>
       </c>
       <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I24" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J24" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="14.25" customHeight="1">
       <c r="B25" s="17">
         <v>44946</v>
       </c>
@@ -4413,8 +4727,14 @@
       <c r="H25" s="47">
         <v>1363.95</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I25" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J25" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="14.25" customHeight="1">
       <c r="B26" s="23">
         <v>44946</v>
       </c>
@@ -4434,8 +4754,14 @@
       <c r="H26" s="50">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I26" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J26" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="14.25" customHeight="1">
       <c r="B27" s="17">
         <v>44946</v>
       </c>
@@ -4455,8 +4781,14 @@
       <c r="H27" s="47">
         <v>2564.9299999999998</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I27" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J27" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="14.25" customHeight="1">
       <c r="B28" s="23">
         <v>44946</v>
       </c>
@@ -4476,8 +4808,14 @@
       <c r="H28" s="50">
         <v>1961.9</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I28" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J28" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="14.25" customHeight="1">
       <c r="B29" s="51">
         <v>44946</v>
       </c>
@@ -4497,8 +4835,14 @@
       <c r="H29" s="47">
         <v>673.54</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I29" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J29" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="14.25" customHeight="1">
       <c r="B30" s="32">
         <v>44952</v>
       </c>
@@ -4518,8 +4862,14 @@
         <v>597.09</v>
       </c>
       <c r="H30" s="31"/>
-    </row>
-    <row r="31" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I30" s="202" t="s">
+        <v>849</v>
+      </c>
+      <c r="J30" s="203" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="14.25" customHeight="1">
       <c r="B31" s="40">
         <v>44953</v>
       </c>
@@ -4539,8 +4889,14 @@
       <c r="H31" s="22">
         <v>854.8</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I31" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J31" s="203" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="14.25" customHeight="1">
       <c r="B32" s="40">
         <v>44956</v>
       </c>
@@ -4560,8 +4916,14 @@
         <v>1346.12</v>
       </c>
       <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I32" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J32" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="14.25" customHeight="1">
       <c r="B33" s="23">
         <v>44957</v>
       </c>
@@ -4581,8 +4943,14 @@
       <c r="H33" s="37">
         <v>211.94</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I33" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J33" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="14.25" customHeight="1">
       <c r="B34" s="63"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
@@ -4596,15 +4964,17 @@
         <f t="shared" si="0"/>
         <v>20647.82</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.25" customHeight="1">
       <c r="B35" s="67"/>
       <c r="C35" s="68"/>
       <c r="D35" s="69"/>
       <c r="E35" s="70"/>
       <c r="F35" s="71"/>
     </row>
-    <row r="36" spans="2:8" ht="14.25" customHeight="1">
+    <row r="36" spans="2:10" ht="14.25" customHeight="1">
       <c r="B36" s="190" t="s">
         <v>97</v>
       </c>
@@ -4614,8 +4984,10 @@
       <c r="F36" s="193"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" customHeight="1">
       <c r="B37" s="5" t="s">
         <v>2</v>
       </c>
@@ -4637,8 +5009,10 @@
       <c r="H37" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I37" s="198"/>
+      <c r="J37" s="198"/>
+    </row>
+    <row r="38" spans="2:10" ht="14.25" customHeight="1">
       <c r="B38" s="11"/>
       <c r="C38" s="12">
         <v>0</v>
@@ -4654,8 +5028,10 @@
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+    </row>
+    <row r="39" spans="2:10" ht="14.25" customHeight="1">
       <c r="B39" s="23">
         <v>44958</v>
       </c>
@@ -4675,8 +5051,14 @@
         <v>2028</v>
       </c>
       <c r="H39" s="31"/>
-    </row>
-    <row r="40" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I39" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J39" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="14.25" customHeight="1">
       <c r="B40" s="17">
         <v>44960</v>
       </c>
@@ -4696,8 +5078,14 @@
         <v>1531.98</v>
       </c>
       <c r="H40" s="31"/>
-    </row>
-    <row r="41" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I40" s="202" t="s">
+        <v>849</v>
+      </c>
+      <c r="J40" s="203" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="14.25" customHeight="1">
       <c r="B41" s="23">
         <v>44960</v>
       </c>
@@ -4717,8 +5105,14 @@
         <v>360</v>
       </c>
       <c r="H41" s="31"/>
-    </row>
-    <row r="42" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I41" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J41" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="14.25" customHeight="1">
       <c r="B42" s="17">
         <v>44960</v>
       </c>
@@ -4738,8 +5132,14 @@
       <c r="H42" s="22">
         <v>166.15</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I42" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J42" s="203" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="14.25" customHeight="1">
       <c r="B43" s="23">
         <v>44960</v>
       </c>
@@ -4759,8 +5159,14 @@
       <c r="H43" s="37">
         <v>307.81</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I43" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J43" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="14.25" customHeight="1">
       <c r="B44" s="23">
         <v>44963</v>
       </c>
@@ -4780,8 +5186,14 @@
       <c r="H44" s="37">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I44" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J44" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="14.25" customHeight="1">
       <c r="B45" s="17">
         <v>44963</v>
       </c>
@@ -4801,8 +5213,14 @@
       <c r="H45" s="22">
         <v>980.6</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I45" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J45" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="14.25" customHeight="1">
       <c r="B46" s="23">
         <v>44963</v>
       </c>
@@ -4822,8 +5240,14 @@
       <c r="H46" s="37">
         <v>1854.78</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I46" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J46" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="14.25" customHeight="1">
       <c r="B47" s="17">
         <v>44963</v>
       </c>
@@ -4843,8 +5267,14 @@
       <c r="H47" s="22">
         <v>1605.29</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I47" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J47" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="14.25" customHeight="1">
       <c r="B48" s="23">
         <v>44963</v>
       </c>
@@ -4864,8 +5294,14 @@
       <c r="H48" s="37">
         <v>1987.74</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I48" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J48" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="14.25" customHeight="1">
       <c r="B49" s="17">
         <v>44963</v>
       </c>
@@ -4885,8 +5321,14 @@
       <c r="H49" s="22">
         <v>1335</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I49" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J49" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="14.25" customHeight="1">
       <c r="B50" s="23">
         <v>44963</v>
       </c>
@@ -4906,8 +5348,14 @@
       <c r="H50" s="37">
         <v>1800</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I50" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J50" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="14.25" customHeight="1">
       <c r="B51" s="17">
         <v>44963</v>
       </c>
@@ -4927,8 +5375,14 @@
       <c r="H51" s="22">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I51" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J51" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="14.25" customHeight="1">
       <c r="B52" s="40">
         <v>44964</v>
       </c>
@@ -4948,8 +5402,14 @@
         <v>424.24</v>
       </c>
       <c r="H52" s="31"/>
-    </row>
-    <row r="53" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I52" s="202" t="s">
+        <v>849</v>
+      </c>
+      <c r="J52" s="203" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="14.25" customHeight="1">
       <c r="B53" s="17">
         <v>44965</v>
       </c>
@@ -4969,8 +5429,14 @@
         <v>866.8</v>
       </c>
       <c r="H53" s="31"/>
-    </row>
-    <row r="54" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I53" s="202" t="s">
+        <v>849</v>
+      </c>
+      <c r="J53" s="203" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="14.25" customHeight="1">
       <c r="B54" s="23">
         <v>44965</v>
       </c>
@@ -4990,8 +5456,14 @@
         <v>508.21</v>
       </c>
       <c r="H54" s="31"/>
-    </row>
-    <row r="55" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I54" s="202" t="s">
+        <v>849</v>
+      </c>
+      <c r="J54" s="203" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="14.25" customHeight="1">
       <c r="B55" s="17">
         <v>44965</v>
       </c>
@@ -5011,8 +5483,14 @@
       <c r="H55" s="22">
         <v>4078.93</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I55" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J55" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="14.25" customHeight="1">
       <c r="B56" s="23">
         <v>44965</v>
       </c>
@@ -5032,8 +5510,14 @@
       <c r="H56" s="37">
         <v>1230.76</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I56" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J56" s="203" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="14.25" customHeight="1">
       <c r="B57" s="77">
         <v>44967</v>
       </c>
@@ -5053,8 +5537,14 @@
         <v>4390.82</v>
       </c>
       <c r="H57" s="76"/>
-    </row>
-    <row r="58" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I57" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J57" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="14.25" customHeight="1">
       <c r="B58" s="83">
         <v>44972</v>
       </c>
@@ -5074,8 +5564,14 @@
         <v>6533.41</v>
       </c>
       <c r="H58" s="76"/>
-    </row>
-    <row r="59" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I58" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J58" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="14.25" customHeight="1">
       <c r="B59" s="83">
         <v>44972</v>
       </c>
@@ -5095,8 +5591,14 @@
       <c r="H59" s="91">
         <v>2006</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I59" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J59" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="14.25" customHeight="1">
       <c r="B60" s="92">
         <v>44973</v>
       </c>
@@ -5116,8 +5618,14 @@
       <c r="H60" s="97">
         <v>1302.1600000000001</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I60" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J60" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="14.25" customHeight="1">
       <c r="B61" s="98">
         <v>44974</v>
       </c>
@@ -5137,8 +5645,14 @@
         <v>1296.57</v>
       </c>
       <c r="H61" s="76"/>
-    </row>
-    <row r="62" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I61" s="202" t="s">
+        <v>849</v>
+      </c>
+      <c r="J61" s="203" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="14.25" customHeight="1">
       <c r="B62" s="102">
         <v>44974</v>
       </c>
@@ -5158,8 +5672,14 @@
         <v>1656</v>
       </c>
       <c r="H62" s="76"/>
-    </row>
-    <row r="63" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I62" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J62" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="14.25" customHeight="1">
       <c r="B63" s="102">
         <v>44979</v>
       </c>
@@ -5179,8 +5699,14 @@
       <c r="H63" s="91">
         <v>2280.21</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I63" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J63" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="14.25" customHeight="1">
       <c r="B64" s="104"/>
       <c r="C64" s="105"/>
       <c r="D64" s="79"/>
@@ -5194,15 +5720,17 @@
         <f t="shared" si="1"/>
         <v>22004.429999999997</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I64" s="199"/>
+      <c r="J64" s="199"/>
+    </row>
+    <row r="65" spans="2:10" ht="14.25" customHeight="1">
       <c r="B65" s="107"/>
       <c r="C65" s="108"/>
       <c r="D65" s="108"/>
       <c r="E65" s="94"/>
       <c r="F65" s="109"/>
     </row>
-    <row r="66" spans="2:8" ht="14.25" customHeight="1">
+    <row r="66" spans="2:10" ht="14.25" customHeight="1">
       <c r="B66" s="190" t="s">
         <v>163</v>
       </c>
@@ -5212,8 +5740,10 @@
       <c r="F66" s="192"/>
       <c r="G66" s="2"/>
       <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8" ht="23.25" customHeight="1">
+      <c r="I66" s="197"/>
+      <c r="J66" s="197"/>
+    </row>
+    <row r="67" spans="2:10" ht="23.25" customHeight="1">
       <c r="B67" s="5" t="s">
         <v>2</v>
       </c>
@@ -5235,8 +5765,10 @@
       <c r="H67" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" ht="16.5" customHeight="1">
+      <c r="I67" s="198"/>
+      <c r="J67" s="198"/>
+    </row>
+    <row r="68" spans="2:10" ht="16.5" customHeight="1">
       <c r="B68" s="11"/>
       <c r="C68" s="12">
         <v>0</v>
@@ -5252,8 +5784,10 @@
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="114"/>
-    </row>
-    <row r="69" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I68" s="199"/>
+      <c r="J68" s="199"/>
+    </row>
+    <row r="69" spans="2:10" ht="14.25" customHeight="1">
       <c r="B69" s="115">
         <v>44986</v>
       </c>
@@ -5273,8 +5807,14 @@
         <v>640.16999999999996</v>
       </c>
       <c r="H69" s="117"/>
-    </row>
-    <row r="70" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I69" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J69" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="14.25" customHeight="1">
       <c r="B70" s="115">
         <v>44987</v>
       </c>
@@ -5294,8 +5834,14 @@
       <c r="H70" s="119">
         <v>264</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I70" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J70" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="14.25" customHeight="1">
       <c r="B71" s="115">
         <v>44991</v>
       </c>
@@ -5315,8 +5861,14 @@
       <c r="H71" s="120">
         <v>1982.08</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I71" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J71" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="14.25" customHeight="1">
       <c r="B72" s="115">
         <v>44991</v>
       </c>
@@ -5336,8 +5888,14 @@
       <c r="H72" s="120">
         <v>1520.9</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I72" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J72" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="14.25" customHeight="1">
       <c r="B73" s="115">
         <v>44991</v>
       </c>
@@ -5357,8 +5915,14 @@
       <c r="H73" s="120">
         <v>2644.9</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I73" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J73" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="14.25" customHeight="1">
       <c r="B74" s="115">
         <v>44991</v>
       </c>
@@ -5378,8 +5942,14 @@
       <c r="H74" s="120">
         <v>801</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I74" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J74" s="203" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="14.25" customHeight="1">
       <c r="B75" s="115">
         <v>44991</v>
       </c>
@@ -5399,8 +5969,14 @@
       <c r="H75" s="125">
         <v>69</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I75" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J75" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="14.25" customHeight="1">
       <c r="B76" s="115">
         <v>44992</v>
       </c>
@@ -5420,8 +5996,14 @@
       <c r="H76" s="126">
         <v>1335</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I76" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J76" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="14.25" customHeight="1">
       <c r="B77" s="115">
         <v>44995</v>
       </c>
@@ -5441,8 +6023,14 @@
         <v>9676.0300000000007</v>
       </c>
       <c r="H77" s="31"/>
-    </row>
-    <row r="78" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I77" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J77" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="14.25" customHeight="1">
       <c r="B78" s="115">
         <v>44995</v>
       </c>
@@ -5462,8 +6050,14 @@
       <c r="H78" s="126">
         <v>39.76</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I78" s="202" t="s">
+        <v>856</v>
+      </c>
+      <c r="J78" s="203" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="14.25" customHeight="1">
       <c r="B79" s="115">
         <v>44999</v>
       </c>
@@ -5483,8 +6077,14 @@
         <v>11875.63</v>
       </c>
       <c r="H79" s="31"/>
-    </row>
-    <row r="80" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I79" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J79" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="14.25" customHeight="1">
       <c r="B80" s="115">
         <v>44999</v>
       </c>
@@ -5504,8 +6104,14 @@
       <c r="H80" s="119">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I80" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J80" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="14.25" customHeight="1">
       <c r="B81" s="115">
         <v>44999</v>
       </c>
@@ -5525,8 +6131,14 @@
       <c r="H81" s="119">
         <v>2712.7</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I81" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J81" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="14.25" customHeight="1">
       <c r="B82" s="115">
         <v>44999</v>
       </c>
@@ -5546,8 +6158,14 @@
       <c r="H82" s="119">
         <v>186.76</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I82" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J82" s="203" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="14.25" customHeight="1">
       <c r="B83" s="115">
         <v>44999</v>
       </c>
@@ -5567,8 +6185,14 @@
       <c r="H83" s="119">
         <v>54.95</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I83" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J83" s="203" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="14.25" customHeight="1">
       <c r="B84" s="115">
         <v>44999</v>
       </c>
@@ -5588,8 +6212,14 @@
       <c r="H84" s="119">
         <v>496.83</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I84" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J84" s="203" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="14.25" customHeight="1">
       <c r="B85" s="115">
         <v>44999</v>
       </c>
@@ -5609,8 +6239,14 @@
       <c r="H85" s="119">
         <v>500</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I85" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J85" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="14.25" customHeight="1">
       <c r="B86" s="115">
         <v>45005</v>
       </c>
@@ -5630,8 +6266,14 @@
       <c r="H86" s="119">
         <v>489.63</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I86" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J86" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" ht="14.25" customHeight="1">
       <c r="B87" s="115">
         <v>45005</v>
       </c>
@@ -5651,8 +6293,14 @@
       <c r="H87" s="126">
         <v>3353.15</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I87" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J87" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" ht="14.25" customHeight="1">
       <c r="B88" s="115">
         <v>45006</v>
       </c>
@@ -5672,8 +6320,14 @@
         <v>1455</v>
       </c>
       <c r="H88" s="31"/>
-    </row>
-    <row r="89" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I88" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J88" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" ht="14.25" customHeight="1">
       <c r="B89" s="115">
         <v>45008</v>
       </c>
@@ -5693,8 +6347,14 @@
         <v>150</v>
       </c>
       <c r="H89" s="31"/>
-    </row>
-    <row r="90" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I89" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J89" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" ht="14.25" customHeight="1">
       <c r="B90" s="115">
         <v>45014</v>
       </c>
@@ -5714,8 +6374,14 @@
       <c r="H90" s="126">
         <v>650.94000000000005</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I90" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J90" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" ht="14.25" customHeight="1">
       <c r="B91" s="115">
         <v>45015</v>
       </c>
@@ -5735,8 +6401,14 @@
       <c r="H91" s="126">
         <v>736.3</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I91" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J91" s="203" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" ht="14.25" customHeight="1">
       <c r="B92" s="115">
         <v>45016</v>
       </c>
@@ -5756,8 +6428,14 @@
         <v>870</v>
       </c>
       <c r="H92" s="31"/>
-    </row>
-    <row r="93" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I92" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J92" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" ht="14.25" customHeight="1">
       <c r="B93" s="115">
         <v>45016</v>
       </c>
@@ -5777,8 +6455,14 @@
       <c r="H93" s="132">
         <v>307.73</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I93" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J93" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" ht="14.25" customHeight="1">
       <c r="B94" s="115">
         <v>45016</v>
       </c>
@@ -5798,8 +6482,14 @@
       <c r="H94" s="132">
         <v>324.24</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I94" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J94" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" ht="14.25" customHeight="1">
       <c r="B95" s="115">
         <v>45016</v>
       </c>
@@ -5819,8 +6509,14 @@
       <c r="H95" s="132" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I95" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J95" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="14.25" customHeight="1">
       <c r="B96" s="115">
         <v>45016</v>
       </c>
@@ -5840,8 +6536,14 @@
       <c r="H96" s="132">
         <v>216</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I96" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J96" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" ht="14.25" customHeight="1">
       <c r="B97" s="115">
         <v>45016</v>
       </c>
@@ -5861,8 +6563,14 @@
       <c r="H97" s="132">
         <v>239</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I97" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J97" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="14.25" customHeight="1">
       <c r="B98" s="115">
         <v>45016</v>
       </c>
@@ -5882,8 +6590,14 @@
       <c r="H98" s="132">
         <v>216</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I98" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J98" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="14.25" customHeight="1">
       <c r="B99" s="1"/>
       <c r="E99" s="109"/>
       <c r="F99" s="133"/>
@@ -5895,11 +6609,13 @@
         <f>SUM(H70:H98)</f>
         <v>19175.97</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I99" s="134"/>
+      <c r="J99" s="134"/>
+    </row>
+    <row r="100" spans="2:10" ht="14.25" customHeight="1">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="14.25" customHeight="1">
+    <row r="101" spans="2:10" ht="14.25" customHeight="1">
       <c r="B101" s="190" t="s">
         <v>243</v>
       </c>
@@ -5909,8 +6625,10 @@
       <c r="F101" s="192"/>
       <c r="G101" s="2"/>
       <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I101" s="197"/>
+      <c r="J101" s="197"/>
+    </row>
+    <row r="102" spans="2:10" ht="14.25" customHeight="1">
       <c r="B102" s="5" t="s">
         <v>2</v>
       </c>
@@ -5932,8 +6650,10 @@
       <c r="H102" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I102" s="198"/>
+      <c r="J102" s="198"/>
+    </row>
+    <row r="103" spans="2:10" ht="14.25" customHeight="1">
       <c r="B103" s="11"/>
       <c r="C103" s="12">
         <v>0</v>
@@ -5949,8 +6669,10 @@
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="114"/>
-    </row>
-    <row r="104" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I103" s="199"/>
+      <c r="J103" s="199"/>
+    </row>
+    <row r="104" spans="2:10" ht="14.25" customHeight="1">
       <c r="B104" s="115">
         <v>45021</v>
       </c>
@@ -5968,8 +6690,14 @@
       <c r="H104" s="136">
         <v>523</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I104" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J104" s="203" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="14.25" customHeight="1">
       <c r="B105" s="115">
         <v>45021</v>
       </c>
@@ -5987,8 +6715,14 @@
       <c r="H105" s="138">
         <v>69</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I105" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J105" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="14.25" customHeight="1">
       <c r="B106" s="115">
         <v>45022</v>
       </c>
@@ -6006,8 +6740,14 @@
       <c r="H106" s="138">
         <v>1123.92</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I106" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J106" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" ht="14.25" customHeight="1">
       <c r="B107" s="115">
         <v>45022</v>
       </c>
@@ -6025,8 +6765,14 @@
       <c r="H107" s="136">
         <v>4078.93</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I107" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J107" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" ht="14.25" customHeight="1">
       <c r="B108" s="115">
         <v>45022</v>
       </c>
@@ -6044,8 +6790,14 @@
       <c r="H108" s="136">
         <v>1060.22</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I108" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J108" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="14.25" customHeight="1">
       <c r="B109" s="115">
         <v>45022</v>
       </c>
@@ -6063,8 +6815,14 @@
       <c r="H109" s="136">
         <v>2079.6799999999998</v>
       </c>
-    </row>
-    <row r="110" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I109" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J109" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" ht="14.25" customHeight="1">
       <c r="B110" s="115">
         <v>45022</v>
       </c>
@@ -6082,8 +6840,14 @@
       <c r="H110" s="136">
         <v>1815.43</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I110" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J110" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" ht="14.25" customHeight="1">
       <c r="B111" s="115">
         <v>45022</v>
       </c>
@@ -6101,8 +6865,14 @@
       <c r="H111" s="136">
         <v>1603.03</v>
       </c>
-    </row>
-    <row r="112" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I111" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J111" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="14.25" customHeight="1">
       <c r="B112" s="115">
         <v>45026</v>
       </c>
@@ -6120,8 +6890,14 @@
         <v>9873.73</v>
       </c>
       <c r="H112" s="31"/>
-    </row>
-    <row r="113" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I112" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J112" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="14.25" customHeight="1">
       <c r="B113" s="115">
         <v>45027</v>
       </c>
@@ -6139,8 +6915,14 @@
       <c r="H113" s="136">
         <v>119.64</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I113" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J113" s="203" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" ht="14.25" customHeight="1">
       <c r="B114" s="115">
         <v>45029</v>
       </c>
@@ -6158,8 +6940,14 @@
         <v>16372.24</v>
       </c>
       <c r="H114" s="31"/>
-    </row>
-    <row r="115" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I114" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J114" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="14.25" customHeight="1">
       <c r="B115" s="115">
         <v>45030</v>
       </c>
@@ -6177,8 +6965,14 @@
         <v>280</v>
       </c>
       <c r="H115" s="31"/>
-    </row>
-    <row r="116" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I115" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J115" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="14.25" customHeight="1">
       <c r="B116" s="115">
         <v>45030</v>
       </c>
@@ -6196,8 +6990,14 @@
         <v>320</v>
       </c>
       <c r="H116" s="31"/>
-    </row>
-    <row r="117" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I116" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J116" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" ht="14.25" customHeight="1">
       <c r="B117" s="115">
         <v>45030</v>
       </c>
@@ -6215,8 +7015,14 @@
       <c r="H117" s="136">
         <v>178.44</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I117" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J117" s="203" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="14.25" customHeight="1">
       <c r="B118" s="115">
         <v>45030</v>
       </c>
@@ -6234,8 +7040,14 @@
       <c r="H118" s="136">
         <v>52.47</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I118" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J118" s="203" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="14.25" customHeight="1">
       <c r="B119" s="115">
         <v>45030</v>
       </c>
@@ -6253,8 +7065,14 @@
       <c r="H119" s="136">
         <v>385.15</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I119" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J119" s="203" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="14.25" customHeight="1">
       <c r="B120" s="115">
         <v>45030</v>
       </c>
@@ -6272,8 +7090,14 @@
       <c r="H120" s="136">
         <v>1638.65</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I120" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J120" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="14.25" customHeight="1">
       <c r="B121" s="115">
         <v>45030</v>
       </c>
@@ -6291,8 +7115,14 @@
       <c r="H121" s="136">
         <v>350</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I121" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J121" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="14.25" customHeight="1">
       <c r="B122" s="115">
         <v>45034</v>
       </c>
@@ -6310,8 +7140,14 @@
       <c r="H122" s="136">
         <v>1436.72</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I122" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J122" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="14.25" customHeight="1">
       <c r="B123" s="115">
         <v>45034</v>
       </c>
@@ -6329,8 +7165,14 @@
       <c r="H123" s="136">
         <v>619.53</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I123" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J123" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="14.25" customHeight="1">
       <c r="B124" s="115">
         <v>45035</v>
       </c>
@@ -6348,8 +7190,14 @@
       <c r="H124" s="136">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I124" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J124" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="14.25" customHeight="1">
       <c r="B125" s="115">
         <v>45035</v>
       </c>
@@ -6367,8 +7215,14 @@
       <c r="H125" s="136">
         <v>3073.23</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I125" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J125" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" ht="14.25" customHeight="1">
       <c r="B126" s="115">
         <v>45035</v>
       </c>
@@ -6386,8 +7240,14 @@
       <c r="H126" s="136">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="127" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I126" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J126" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="14.25" customHeight="1">
       <c r="B127" s="115">
         <v>45035</v>
       </c>
@@ -6405,8 +7265,14 @@
       <c r="H127" s="136">
         <v>2553.58</v>
       </c>
-    </row>
-    <row r="128" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I127" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J127" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="14.25" customHeight="1">
       <c r="B128" s="115">
         <v>45036</v>
       </c>
@@ -6424,8 +7290,14 @@
         <v>430</v>
       </c>
       <c r="H128" s="31"/>
-    </row>
-    <row r="129" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I128" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J128" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" ht="14.25" customHeight="1">
       <c r="B129" s="115">
         <v>45036</v>
       </c>
@@ -6443,8 +7315,14 @@
         <v>295</v>
       </c>
       <c r="H129" s="31"/>
-    </row>
-    <row r="130" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I129" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J129" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" ht="14.25" customHeight="1">
       <c r="B130" s="115">
         <v>45036</v>
       </c>
@@ -6462,8 +7340,14 @@
       <c r="H130" s="136">
         <v>696.04</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I130" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J130" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" ht="14.25" customHeight="1">
       <c r="B131" s="115">
         <v>45040</v>
       </c>
@@ -6481,8 +7365,14 @@
         <v>2395</v>
       </c>
       <c r="H131" s="31"/>
-    </row>
-    <row r="132" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I131" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J131" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" ht="14.25" customHeight="1">
       <c r="B132" s="115">
         <v>45041</v>
       </c>
@@ -6500,8 +7390,14 @@
       <c r="H132" s="143">
         <v>147.62</v>
       </c>
-    </row>
-    <row r="133" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I132" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J132" s="203" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" ht="14.25" customHeight="1">
       <c r="B133" s="115">
         <v>45041</v>
       </c>
@@ -6519,8 +7415,14 @@
       <c r="H133" s="143">
         <v>149.9</v>
       </c>
-    </row>
-    <row r="134" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I133" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J133" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" ht="14.25" customHeight="1">
       <c r="B134" s="115">
         <v>45041</v>
       </c>
@@ -6538,8 +7440,14 @@
       <c r="H134" s="143">
         <v>123.6</v>
       </c>
-    </row>
-    <row r="135" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I134" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J134" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" ht="14.25" customHeight="1">
       <c r="B135" s="115">
         <v>45041</v>
       </c>
@@ -6557,8 +7465,14 @@
       <c r="H135" s="143">
         <v>57.61</v>
       </c>
-    </row>
-    <row r="136" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I135" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J135" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" ht="14.25" customHeight="1">
       <c r="B136" s="115">
         <v>45043</v>
       </c>
@@ -6576,8 +7490,14 @@
       <c r="H136" s="136">
         <v>266.94</v>
       </c>
-    </row>
-    <row r="137" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I136" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J136" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="14.25" customHeight="1">
       <c r="B137" s="115">
         <v>45043</v>
       </c>
@@ -6595,8 +7515,14 @@
       <c r="H137" s="136">
         <v>654.26</v>
       </c>
-    </row>
-    <row r="138" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I137" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J137" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" ht="14.25" customHeight="1">
       <c r="B138" s="115">
         <v>45043</v>
       </c>
@@ -6614,8 +7540,14 @@
       <c r="H138" s="136">
         <v>850.1</v>
       </c>
-    </row>
-    <row r="139" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I138" s="202" t="s">
+        <v>856</v>
+      </c>
+      <c r="J138" s="203" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="14.25" customHeight="1">
       <c r="B139" s="115">
         <v>45043</v>
       </c>
@@ -6633,8 +7565,14 @@
       <c r="H139" s="136">
         <v>264</v>
       </c>
-    </row>
-    <row r="140" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I139" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J139" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="14.25" customHeight="1">
       <c r="B140" s="115">
         <v>45044</v>
       </c>
@@ -6652,8 +7590,14 @@
       <c r="H140" s="148">
         <v>264</v>
       </c>
-    </row>
-    <row r="141" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I140" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J140" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" ht="14.25" customHeight="1">
       <c r="B141" s="115">
         <v>45044</v>
       </c>
@@ -6671,8 +7615,14 @@
       <c r="H141" s="148">
         <v>252</v>
       </c>
-    </row>
-    <row r="142" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I141" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J141" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" ht="14.25" customHeight="1">
       <c r="B142" s="115">
         <v>45044</v>
       </c>
@@ -6690,8 +7640,14 @@
       <c r="H142" s="148">
         <v>1200</v>
       </c>
-    </row>
-    <row r="143" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I142" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J142" s="203" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="14.25" customHeight="1">
       <c r="B143" s="77"/>
       <c r="C143" s="145"/>
       <c r="D143" s="145"/>
@@ -6705,8 +7661,10 @@
         <f t="shared" si="2"/>
         <v>27787.949999999993</v>
       </c>
-    </row>
-    <row r="144" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I143" s="199"/>
+      <c r="J143" s="199"/>
+    </row>
+    <row r="144" spans="2:10" ht="14.25" customHeight="1">
       <c r="B144" s="121"/>
       <c r="C144" s="30"/>
       <c r="D144" s="30"/>
@@ -6714,8 +7672,10 @@
       <c r="F144" s="30"/>
       <c r="G144" s="30"/>
       <c r="H144" s="30"/>
-    </row>
-    <row r="145" spans="2:8" ht="15.75" customHeight="1">
+      <c r="I144" s="200"/>
+      <c r="J144" s="200"/>
+    </row>
+    <row r="145" spans="2:10" ht="15.75" customHeight="1">
       <c r="B145" s="190" t="s">
         <v>346</v>
       </c>
@@ -6725,8 +7685,10 @@
       <c r="F145" s="192"/>
       <c r="G145" s="2"/>
       <c r="H145" s="3"/>
-    </row>
-    <row r="146" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I145" s="197"/>
+      <c r="J145" s="197"/>
+    </row>
+    <row r="146" spans="2:10" ht="14.25" customHeight="1">
       <c r="B146" s="5" t="s">
         <v>2</v>
       </c>
@@ -6748,8 +7710,10 @@
       <c r="H146" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I146" s="198"/>
+      <c r="J146" s="198"/>
+    </row>
+    <row r="147" spans="2:10" ht="14.25" customHeight="1">
       <c r="B147" s="11"/>
       <c r="C147" s="12">
         <v>0</v>
@@ -6765,8 +7729,10 @@
       </c>
       <c r="G147" s="15"/>
       <c r="H147" s="114"/>
-    </row>
-    <row r="148" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I147" s="199"/>
+      <c r="J147" s="199"/>
+    </row>
+    <row r="148" spans="2:10" ht="14.25" customHeight="1">
       <c r="B148" s="77">
         <v>45048</v>
       </c>
@@ -6786,8 +7752,14 @@
         <v>455</v>
       </c>
       <c r="H148" s="152"/>
-    </row>
-    <row r="149" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I148" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J148" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" ht="14.25" customHeight="1">
       <c r="B149" s="77">
         <v>45048</v>
       </c>
@@ -6807,8 +7779,14 @@
       <c r="H149" s="152">
         <v>619.52</v>
       </c>
-    </row>
-    <row r="150" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I149" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J149" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" ht="14.25" customHeight="1">
       <c r="B150" s="77">
         <v>45050</v>
       </c>
@@ -6828,8 +7806,14 @@
       <c r="H150" s="152">
         <v>523</v>
       </c>
-    </row>
-    <row r="151" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I150" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J150" s="203" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" ht="14.25" customHeight="1">
       <c r="B151" s="77">
         <v>45051</v>
       </c>
@@ -6849,8 +7833,14 @@
       <c r="H151" s="154">
         <v>1645.4</v>
       </c>
-    </row>
-    <row r="152" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I151" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J151" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" ht="14.25" customHeight="1">
       <c r="B152" s="77">
         <v>45051</v>
       </c>
@@ -6870,8 +7860,14 @@
       <c r="H152" s="155">
         <v>2036.2</v>
       </c>
-    </row>
-    <row r="153" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I152" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J152" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" ht="14.25" customHeight="1">
       <c r="B153" s="77">
         <v>45051</v>
       </c>
@@ -6891,8 +7887,14 @@
       <c r="H153" s="155">
         <v>594.37</v>
       </c>
-    </row>
-    <row r="154" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I153" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J153" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" ht="14.25" customHeight="1">
       <c r="B154" s="77">
         <v>45051</v>
       </c>
@@ -6912,8 +7914,14 @@
       <c r="H154" s="155">
         <v>1603.03</v>
       </c>
-    </row>
-    <row r="155" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I154" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J154" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" ht="14.25" customHeight="1">
       <c r="B155" s="77">
         <v>45051</v>
       </c>
@@ -6933,8 +7941,14 @@
       <c r="H155" s="155">
         <v>1335</v>
       </c>
-    </row>
-    <row r="156" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I155" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J155" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" ht="14.25" customHeight="1">
       <c r="B156" s="77">
         <v>45051</v>
       </c>
@@ -6954,8 +7968,14 @@
       <c r="H156" s="155">
         <v>1335</v>
       </c>
-    </row>
-    <row r="157" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I156" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J156" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" ht="14.25" customHeight="1">
       <c r="B157" s="77">
         <v>45051</v>
       </c>
@@ -6975,8 +7995,14 @@
       <c r="H157" s="155">
         <v>992.95</v>
       </c>
-    </row>
-    <row r="158" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I157" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J157" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" ht="14.25" customHeight="1">
       <c r="B158" s="77">
         <v>45051</v>
       </c>
@@ -6996,8 +8022,14 @@
       <c r="H158" s="156">
         <v>69</v>
       </c>
-    </row>
-    <row r="159" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I158" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J158" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" ht="14.25" customHeight="1">
       <c r="B159" s="77">
         <v>45054</v>
       </c>
@@ -7017,8 +8049,14 @@
       <c r="H159" s="156">
         <v>4707.97</v>
       </c>
-    </row>
-    <row r="160" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I159" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J159" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" ht="14.25" customHeight="1">
       <c r="B160" s="77">
         <v>45055</v>
       </c>
@@ -7038,8 +8076,14 @@
         <v>785</v>
       </c>
       <c r="H160" s="31"/>
-    </row>
-    <row r="161" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I160" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J160" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" ht="14.25" customHeight="1">
       <c r="B161" s="77">
         <v>45056</v>
       </c>
@@ -7059,8 +8103,14 @@
         <v>6468.36</v>
       </c>
       <c r="H161" s="31"/>
-    </row>
-    <row r="162" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I161" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J161" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" ht="14.25" customHeight="1">
       <c r="B162" s="104">
         <v>45061</v>
       </c>
@@ -7080,8 +8130,14 @@
         <v>150</v>
       </c>
       <c r="H162" s="31"/>
-    </row>
-    <row r="163" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I162" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J162" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" ht="14.25" customHeight="1">
       <c r="B163" s="104">
         <v>45061</v>
       </c>
@@ -7099,8 +8155,14 @@
       <c r="H163" s="148">
         <v>3872.31</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I163" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J163" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" ht="14.25" customHeight="1">
       <c r="B164" s="159">
         <v>45065</v>
       </c>
@@ -7120,8 +8182,14 @@
       <c r="H164" s="143">
         <v>1194.57</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I164" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J164" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" ht="14.25" customHeight="1">
       <c r="B165" s="159">
         <v>45065</v>
       </c>
@@ -7141,8 +8209,14 @@
       <c r="H165" s="143">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="166" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I165" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J165" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" ht="14.25" customHeight="1">
       <c r="B166" s="159">
         <v>45065</v>
       </c>
@@ -7162,8 +8236,14 @@
       <c r="H166" s="143">
         <v>10.72</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I166" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J166" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" ht="14.25" customHeight="1">
       <c r="B167" s="159">
         <v>45065</v>
       </c>
@@ -7183,8 +8263,14 @@
         <v>11602.19</v>
       </c>
       <c r="H167" s="31"/>
-    </row>
-    <row r="168" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I167" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J167" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" ht="14.25" customHeight="1">
       <c r="B168" s="159">
         <v>45068</v>
       </c>
@@ -7204,8 +8290,14 @@
         <v>2185</v>
       </c>
       <c r="H168" s="31"/>
-    </row>
-    <row r="169" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I168" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J168" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" ht="14.25" customHeight="1">
       <c r="B169" s="159">
         <v>45069</v>
       </c>
@@ -7225,8 +8317,14 @@
       <c r="H169" s="143">
         <v>92.79</v>
       </c>
-    </row>
-    <row r="170" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I169" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J169" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" ht="14.25" customHeight="1">
       <c r="B170" s="159">
         <v>45075</v>
       </c>
@@ -7246,8 +8344,14 @@
       <c r="H170" s="160">
         <v>242.94</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I170" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J170" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" ht="14.25" customHeight="1">
       <c r="B171" s="121"/>
       <c r="C171" s="30"/>
       <c r="D171" s="30"/>
@@ -7261,12 +8365,14 @@
         <f>SUM(H149:H170)</f>
         <v>20959.350000000006</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I171" s="199"/>
+      <c r="J171" s="199"/>
+    </row>
+    <row r="172" spans="2:10" ht="14.25" customHeight="1">
       <c r="B172" s="1"/>
       <c r="D172" s="161"/>
     </row>
-    <row r="173" spans="2:8" ht="14.25" customHeight="1">
+    <row r="173" spans="2:10" ht="14.25" customHeight="1">
       <c r="B173" s="190" t="s">
         <v>404</v>
       </c>
@@ -7276,8 +8382,10 @@
       <c r="F173" s="192"/>
       <c r="G173" s="2"/>
       <c r="H173" s="3"/>
-    </row>
-    <row r="174" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I173" s="197"/>
+      <c r="J173" s="197"/>
+    </row>
+    <row r="174" spans="2:10" ht="14.25" customHeight="1">
       <c r="B174" s="5" t="s">
         <v>2</v>
       </c>
@@ -7299,8 +8407,10 @@
       <c r="H174" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I174" s="198"/>
+      <c r="J174" s="198"/>
+    </row>
+    <row r="175" spans="2:10" ht="14.25" customHeight="1">
       <c r="B175" s="11"/>
       <c r="C175" s="12">
         <v>0</v>
@@ -7316,8 +8426,10 @@
       </c>
       <c r="G175" s="15"/>
       <c r="H175" s="114"/>
-    </row>
-    <row r="176" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I175" s="199"/>
+      <c r="J175" s="199"/>
+    </row>
+    <row r="176" spans="2:10" ht="14.25" customHeight="1">
       <c r="B176" s="159">
         <v>45082</v>
       </c>
@@ -7337,8 +8449,14 @@
         <v>630</v>
       </c>
       <c r="H176" s="31"/>
-    </row>
-    <row r="177" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I176" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J176" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" ht="14.25" customHeight="1">
       <c r="B177" s="159">
         <v>45082</v>
       </c>
@@ -7358,8 +8476,14 @@
       <c r="H177" s="148">
         <v>69</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I177" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J177" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" ht="14.25" customHeight="1">
       <c r="B178" s="159">
         <v>45083</v>
       </c>
@@ -7379,8 +8503,14 @@
         <v>200</v>
       </c>
       <c r="H178" s="31"/>
-    </row>
-    <row r="179" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I178" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J178" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" ht="14.25" customHeight="1">
       <c r="B179" s="159">
         <v>45083</v>
       </c>
@@ -7400,8 +8530,14 @@
       <c r="H179" s="148">
         <v>1617.4</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I179" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J179" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" ht="14.25" customHeight="1">
       <c r="B180" s="159">
         <v>45083</v>
       </c>
@@ -7421,8 +8557,14 @@
       <c r="H180" s="148">
         <v>1957.64</v>
       </c>
-    </row>
-    <row r="181" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I180" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J180" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" ht="14.25" customHeight="1">
       <c r="B181" s="159">
         <v>45083</v>
       </c>
@@ -7442,8 +8584,14 @@
       <c r="H181" s="148">
         <v>896.48</v>
       </c>
-    </row>
-    <row r="182" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I181" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J181" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" ht="14.25" customHeight="1">
       <c r="B182" s="159">
         <v>45083</v>
       </c>
@@ -7463,8 +8611,14 @@
       <c r="H182" s="148">
         <v>523</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I182" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J182" s="203" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" ht="14.25" customHeight="1">
       <c r="B183" s="159">
         <v>45084</v>
       </c>
@@ -7484,8 +8638,14 @@
       <c r="H183" s="148">
         <v>4707.97</v>
       </c>
-    </row>
-    <row r="184" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I183" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J183" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" ht="14.25" customHeight="1">
       <c r="B184" s="162">
         <v>45086</v>
       </c>
@@ -7505,8 +8665,14 @@
       <c r="H184" s="148">
         <v>1100.57</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I184" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J184" s="203" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" ht="14.25" customHeight="1">
       <c r="B185" s="159">
         <v>45089</v>
       </c>
@@ -7526,8 +8692,14 @@
         <v>5314.62</v>
       </c>
       <c r="H185" s="31"/>
-    </row>
-    <row r="186" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I185" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J185" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" ht="14.25" customHeight="1">
       <c r="B186" s="159">
         <v>45090</v>
       </c>
@@ -7547,8 +8719,14 @@
         <v>6841.55</v>
       </c>
       <c r="H186" s="31"/>
-    </row>
-    <row r="187" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I186" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J186" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" ht="14.25" customHeight="1">
       <c r="B187" s="159">
         <v>45093</v>
       </c>
@@ -7568,8 +8746,14 @@
       <c r="H187" s="148">
         <v>712.29</v>
       </c>
-    </row>
-    <row r="188" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I187" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J187" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" ht="14.25" customHeight="1">
       <c r="B188" s="159">
         <v>45096</v>
       </c>
@@ -7589,8 +8773,14 @@
       <c r="H188" s="148">
         <v>1540.64</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I188" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J188" s="203" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" ht="14.25" customHeight="1">
       <c r="B189" s="159">
         <v>45096</v>
       </c>
@@ -7610,8 +8800,14 @@
       <c r="H189" s="148">
         <v>175</v>
       </c>
-    </row>
-    <row r="190" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I189" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J189" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" ht="14.25" customHeight="1">
       <c r="B190" s="159">
         <v>45096</v>
       </c>
@@ -7631,8 +8827,14 @@
       <c r="H190" s="148">
         <v>1219.71</v>
       </c>
-    </row>
-    <row r="191" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I190" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J190" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" ht="14.25" customHeight="1">
       <c r="B191" s="159">
         <v>45096</v>
       </c>
@@ -7652,8 +8854,14 @@
       <c r="H191" s="148">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I191" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J191" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" ht="14.25" customHeight="1">
       <c r="B192" s="159">
         <v>45096</v>
       </c>
@@ -7673,8 +8881,14 @@
       <c r="H192" s="148">
         <v>2690.29</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I192" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J192" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="14.25" customHeight="1">
       <c r="B193" s="159">
         <v>45098</v>
       </c>
@@ -7694,8 +8908,14 @@
         <v>5717.5</v>
       </c>
       <c r="H193" s="31"/>
-    </row>
-    <row r="194" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I193" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J193" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="14.25" customHeight="1">
       <c r="B194" s="159">
         <v>45100</v>
       </c>
@@ -7715,8 +8935,14 @@
       <c r="H194" s="148">
         <v>123.6</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I194" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J194" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="14.25" customHeight="1">
       <c r="B195" s="159">
         <v>45100</v>
       </c>
@@ -7736,8 +8962,14 @@
       <c r="H195" s="148">
         <v>57.61</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I195" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J195" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="14.25" customHeight="1">
       <c r="B196" s="159">
         <v>45100</v>
       </c>
@@ -7757,8 +8989,14 @@
       <c r="H196" s="148">
         <v>149.9</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I196" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J196" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="14.25" customHeight="1">
       <c r="B197" s="159">
         <v>45100</v>
       </c>
@@ -7778,8 +9016,14 @@
       <c r="H197" s="148">
         <v>115.99</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I197" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J197" s="203" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="14.25" customHeight="1">
       <c r="B198" s="159">
         <v>45100</v>
       </c>
@@ -7799,8 +9043,14 @@
       <c r="H198" s="148">
         <v>492.34</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I198" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J198" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="14.25" customHeight="1">
       <c r="B199" s="159">
         <v>45100</v>
       </c>
@@ -7820,8 +9070,14 @@
       <c r="H199" s="148">
         <v>138.22</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I199" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J199" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="14.25" customHeight="1">
       <c r="B200" s="159">
         <v>45100</v>
       </c>
@@ -7841,8 +9097,14 @@
       <c r="H200" s="148">
         <v>654.24</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I200" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J200" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="14.25" customHeight="1">
       <c r="B201" s="159">
         <v>45100</v>
       </c>
@@ -7862,8 +9124,14 @@
       <c r="H201" s="148">
         <v>327.41000000000003</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I201" s="202" t="s">
+        <v>856</v>
+      </c>
+      <c r="J201" s="203" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="14.25" customHeight="1">
       <c r="B202" s="165">
         <v>45103</v>
       </c>
@@ -7883,8 +9151,14 @@
         <v>370</v>
       </c>
       <c r="H202" s="36"/>
-    </row>
-    <row r="203" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I202" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J202" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="14.25" customHeight="1">
       <c r="A203" s="170"/>
       <c r="B203" s="159">
         <v>45105</v>
@@ -7905,8 +9179,14 @@
       <c r="H203" s="148">
         <v>254.94</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I203" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J203" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="14.25" customHeight="1">
       <c r="A204" s="170"/>
       <c r="B204" s="159">
         <v>45105</v>
@@ -7927,8 +9207,14 @@
       <c r="H204" s="148">
         <v>193.14</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I204" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J204" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="14.25" customHeight="1">
       <c r="A205" s="170"/>
       <c r="B205" s="159">
         <v>45107</v>
@@ -7949,8 +9235,14 @@
         <v>200</v>
       </c>
       <c r="H205" s="148"/>
-    </row>
-    <row r="206" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I205" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J205" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="14.25" customHeight="1">
       <c r="A206" s="170"/>
       <c r="B206" s="159">
         <v>45107</v>
@@ -7971,8 +9263,14 @@
       <c r="H206" s="148">
         <v>1050</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I206" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J206" s="203" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="14.25" customHeight="1">
       <c r="B207" s="121"/>
       <c r="C207" s="30"/>
       <c r="D207" s="30"/>
@@ -7986,11 +9284,13 @@
         <f>SUM(H177:H206)</f>
         <v>20851.960000000003</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I207" s="199"/>
+      <c r="J207" s="199"/>
+    </row>
+    <row r="208" spans="1:10" ht="14.25" customHeight="1">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:9" ht="14.25" customHeight="1">
+    <row r="209" spans="2:11" ht="14.25" customHeight="1">
       <c r="B209" s="190" t="s">
         <v>479</v>
       </c>
@@ -8000,8 +9300,10 @@
       <c r="F209" s="192"/>
       <c r="G209" s="2"/>
       <c r="H209" s="3"/>
-    </row>
-    <row r="210" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I209" s="197"/>
+      <c r="J209" s="197"/>
+    </row>
+    <row r="210" spans="2:11" ht="14.25" customHeight="1">
       <c r="B210" s="5" t="s">
         <v>2</v>
       </c>
@@ -8023,8 +9325,10 @@
       <c r="H210" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I210" s="198"/>
+      <c r="J210" s="198"/>
+    </row>
+    <row r="211" spans="2:11" ht="14.25" customHeight="1">
       <c r="B211" s="11"/>
       <c r="C211" s="12">
         <v>0</v>
@@ -8040,8 +9344,10 @@
       </c>
       <c r="G211" s="15"/>
       <c r="H211" s="114"/>
-    </row>
-    <row r="212" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I211" s="199"/>
+      <c r="J211" s="199"/>
+    </row>
+    <row r="212" spans="2:11" ht="14.25" customHeight="1">
       <c r="B212" s="159">
         <v>45111</v>
       </c>
@@ -8061,11 +9367,17 @@
         <v>290</v>
       </c>
       <c r="H212" s="30"/>
-      <c r="I212" s="4" t="s">
+      <c r="I212" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J212" s="205" t="s">
+        <v>844</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="14.25" customHeight="1">
+    <row r="213" spans="2:11" ht="14.25" customHeight="1">
       <c r="B213" s="159">
         <v>45112</v>
       </c>
@@ -8085,8 +9397,14 @@
       <c r="H213" s="148">
         <v>69</v>
       </c>
-    </row>
-    <row r="214" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I213" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J213" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" ht="14.25" customHeight="1">
       <c r="B214" s="159">
         <v>45113</v>
       </c>
@@ -8106,8 +9424,14 @@
       <c r="H214" s="148">
         <v>917.24</v>
       </c>
-    </row>
-    <row r="215" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I214" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J214" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" ht="14.25" customHeight="1">
       <c r="B215" s="159">
         <v>45113</v>
       </c>
@@ -8127,8 +9451,14 @@
       <c r="H215" s="148">
         <v>2277.04</v>
       </c>
-    </row>
-    <row r="216" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I215" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J215" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" ht="14.25" customHeight="1">
       <c r="B216" s="159">
         <v>45113</v>
       </c>
@@ -8148,8 +9478,14 @@
       <c r="H216" s="148">
         <v>1558.72</v>
       </c>
-    </row>
-    <row r="217" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I216" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J216" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" ht="14.25" customHeight="1">
       <c r="B217" s="159">
         <v>45113</v>
       </c>
@@ -8169,8 +9505,14 @@
       <c r="H217" s="148">
         <v>1603.3</v>
       </c>
-    </row>
-    <row r="218" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I217" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J217" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" ht="14.25" customHeight="1">
       <c r="B218" s="159">
         <v>45113</v>
       </c>
@@ -8190,8 +9532,14 @@
       <c r="H218" s="148">
         <v>523</v>
       </c>
-    </row>
-    <row r="219" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I218" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J218" s="203" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" ht="14.25" customHeight="1">
       <c r="B219" s="159">
         <v>45114</v>
       </c>
@@ -8211,8 +9559,14 @@
       <c r="H219" s="148">
         <v>39.76</v>
       </c>
-    </row>
-    <row r="220" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I219" s="202" t="s">
+        <v>856</v>
+      </c>
+      <c r="J219" s="203" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" ht="14.25" customHeight="1">
       <c r="B220" s="159">
         <v>45114</v>
       </c>
@@ -8232,8 +9586,14 @@
       <c r="H220" s="148">
         <v>4707.97</v>
       </c>
-    </row>
-    <row r="221" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I220" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J220" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" ht="14.25" customHeight="1">
       <c r="B221" s="159">
         <v>45114</v>
       </c>
@@ -8253,8 +9613,14 @@
       <c r="H221" s="148">
         <v>1000.38</v>
       </c>
-    </row>
-    <row r="222" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I221" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J221" s="203" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" ht="14.25" customHeight="1">
       <c r="B222" s="159">
         <v>45117</v>
       </c>
@@ -8274,8 +9640,14 @@
         <v>9377.7900000000009</v>
       </c>
       <c r="H222" s="31"/>
-    </row>
-    <row r="223" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I222" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J222" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" ht="14.25" customHeight="1">
       <c r="B223" s="159">
         <v>45120</v>
       </c>
@@ -8295,8 +9667,14 @@
         <v>2350.54</v>
       </c>
       <c r="H223" s="31"/>
-    </row>
-    <row r="224" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I223" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J223" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" ht="14.25" customHeight="1">
       <c r="B224" s="159">
         <v>45121</v>
       </c>
@@ -8316,8 +9694,14 @@
       <c r="H224" s="148">
         <v>1665.48</v>
       </c>
-    </row>
-    <row r="225" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I224" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J224" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" ht="14.25" customHeight="1">
       <c r="B225" s="159">
         <v>45125</v>
       </c>
@@ -8337,8 +9721,14 @@
         <v>290</v>
       </c>
       <c r="H225" s="31"/>
-    </row>
-    <row r="226" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I225" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J225" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" ht="14.25" customHeight="1">
       <c r="B226" s="159">
         <v>45126</v>
       </c>
@@ -8358,8 +9748,14 @@
       <c r="H226" s="148">
         <v>2750.96</v>
       </c>
-    </row>
-    <row r="227" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I226" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J226" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" ht="14.25" customHeight="1">
       <c r="B227" s="159">
         <v>45126</v>
       </c>
@@ -8379,8 +9775,14 @@
       <c r="H227" s="148">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="228" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I227" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J227" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" ht="14.25" customHeight="1">
       <c r="B228" s="159">
         <v>45126</v>
       </c>
@@ -8400,8 +9802,14 @@
       <c r="H228" s="148">
         <v>1174.3</v>
       </c>
-    </row>
-    <row r="229" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I228" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J228" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" ht="14.25" customHeight="1">
       <c r="B229" s="159">
         <v>45128</v>
       </c>
@@ -8421,8 +9829,14 @@
         <v>5666.4</v>
       </c>
       <c r="H229" s="31"/>
-    </row>
-    <row r="230" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I229" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J229" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" ht="14.25" customHeight="1">
       <c r="B230" s="159">
         <v>45131</v>
       </c>
@@ -8442,8 +9856,14 @@
       <c r="H230" s="148">
         <v>149.9</v>
       </c>
-    </row>
-    <row r="231" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I230" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J230" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" ht="14.25" customHeight="1">
       <c r="B231" s="159">
         <v>45131</v>
       </c>
@@ -8463,8 +9883,14 @@
       <c r="H231" s="148">
         <v>123.6</v>
       </c>
-    </row>
-    <row r="232" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I231" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J231" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" ht="14.25" customHeight="1">
       <c r="B232" s="159">
         <v>45131</v>
       </c>
@@ -8484,8 +9910,14 @@
       <c r="H232" s="148">
         <v>64.540000000000006</v>
       </c>
-    </row>
-    <row r="233" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I232" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J232" s="203" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" ht="14.25" customHeight="1">
       <c r="B233" s="159">
         <v>45131</v>
       </c>
@@ -8505,8 +9937,14 @@
       <c r="H233" s="148">
         <v>492.34</v>
       </c>
-    </row>
-    <row r="234" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I233" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J233" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" ht="14.25" customHeight="1">
       <c r="B234" s="159">
         <v>45131</v>
       </c>
@@ -8526,8 +9964,14 @@
       <c r="H234" s="148">
         <v>105.45</v>
       </c>
-    </row>
-    <row r="235" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I234" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J234" s="203" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" ht="14.25" customHeight="1">
       <c r="B235" s="159">
         <v>45138</v>
       </c>
@@ -8547,8 +9991,14 @@
         <v>650</v>
       </c>
       <c r="H235" s="31"/>
-    </row>
-    <row r="236" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I235" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J235" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" ht="14.25" customHeight="1">
       <c r="B236" s="121"/>
       <c r="C236" s="30"/>
       <c r="D236" s="30"/>
@@ -8562,11 +10012,13 @@
         <f>SUM(H213:H235)</f>
         <v>19307.560000000001</v>
       </c>
-    </row>
-    <row r="237" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I236" s="199"/>
+      <c r="J236" s="199"/>
+    </row>
+    <row r="237" spans="2:10" ht="14.25" customHeight="1">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:8" ht="14.25" customHeight="1">
+    <row r="238" spans="2:10" ht="14.25" customHeight="1">
       <c r="B238" s="190" t="s">
         <v>530</v>
       </c>
@@ -8576,8 +10028,10 @@
       <c r="F238" s="192"/>
       <c r="G238" s="2"/>
       <c r="H238" s="3"/>
-    </row>
-    <row r="239" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I238" s="197"/>
+      <c r="J238" s="197"/>
+    </row>
+    <row r="239" spans="2:10" ht="14.25" customHeight="1">
       <c r="B239" s="5" t="s">
         <v>2</v>
       </c>
@@ -8599,8 +10053,10 @@
       <c r="H239" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I239" s="198"/>
+      <c r="J239" s="198"/>
+    </row>
+    <row r="240" spans="2:10" ht="14.25" customHeight="1">
       <c r="B240" s="11"/>
       <c r="C240" s="12">
         <v>0</v>
@@ -8616,8 +10072,10 @@
       </c>
       <c r="G240" s="15"/>
       <c r="H240" s="114"/>
-    </row>
-    <row r="241" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I240" s="199"/>
+      <c r="J240" s="199"/>
+    </row>
+    <row r="241" spans="2:10" ht="14.25" customHeight="1">
       <c r="B241" s="159">
         <v>45141</v>
       </c>
@@ -8637,8 +10095,14 @@
         <v>440</v>
       </c>
       <c r="H241" s="30"/>
-    </row>
-    <row r="242" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I241" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J241" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" ht="14.25" customHeight="1">
       <c r="B242" s="159">
         <v>45142</v>
       </c>
@@ -8658,8 +10122,14 @@
       <c r="H242" s="148">
         <v>679.02</v>
       </c>
-    </row>
-    <row r="243" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I242" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J242" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" ht="14.25" customHeight="1">
       <c r="B243" s="159">
         <v>45142</v>
       </c>
@@ -8679,8 +10149,14 @@
       <c r="H243" s="148">
         <v>731.63</v>
       </c>
-    </row>
-    <row r="244" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I243" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J243" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" ht="14.25" customHeight="1">
       <c r="B244" s="159">
         <v>45142</v>
       </c>
@@ -8700,8 +10176,14 @@
       <c r="H244" s="148">
         <v>4707.97</v>
       </c>
-    </row>
-    <row r="245" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I244" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J244" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" ht="14.25" customHeight="1">
       <c r="B245" s="159">
         <v>45142</v>
       </c>
@@ -8721,8 +10203,14 @@
       <c r="H245" s="148">
         <v>2402.08</v>
       </c>
-    </row>
-    <row r="246" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I245" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J245" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" ht="14.25" customHeight="1">
       <c r="B246" s="159">
         <v>45142</v>
       </c>
@@ -8742,8 +10230,14 @@
       <c r="H246" s="148">
         <v>1558.72</v>
       </c>
-    </row>
-    <row r="247" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I246" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J246" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" ht="14.25" customHeight="1">
       <c r="B247" s="159">
         <v>45142</v>
       </c>
@@ -8763,8 +10257,14 @@
       <c r="H247" s="148">
         <v>1603.3</v>
       </c>
-    </row>
-    <row r="248" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I247" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J247" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" ht="14.25" customHeight="1">
       <c r="B248" s="159">
         <v>45142</v>
       </c>
@@ -8784,8 +10284,14 @@
       <c r="H248" s="148">
         <v>1335</v>
       </c>
-    </row>
-    <row r="249" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I248" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J248" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" ht="14.25" customHeight="1">
       <c r="B249" s="159">
         <v>45145</v>
       </c>
@@ -8805,8 +10311,14 @@
       <c r="H249" s="148">
         <v>69</v>
       </c>
-    </row>
-    <row r="250" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I249" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J249" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" ht="14.25" customHeight="1">
       <c r="B250" s="159">
         <v>45148</v>
       </c>
@@ -8826,8 +10338,14 @@
         <v>4920.88</v>
       </c>
       <c r="H250" s="31"/>
-    </row>
-    <row r="251" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I250" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J250" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" ht="14.25" customHeight="1">
       <c r="B251" s="159">
         <v>45156</v>
       </c>
@@ -8847,8 +10365,14 @@
       <c r="H251" s="148">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="252" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I251" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J251" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" ht="14.25" customHeight="1">
       <c r="B252" s="159">
         <v>45156</v>
       </c>
@@ -8868,8 +10392,14 @@
       <c r="H252" s="148">
         <v>1924.85</v>
       </c>
-    </row>
-    <row r="253" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I252" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J252" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" ht="14.25" customHeight="1">
       <c r="B253" s="159">
         <v>45159</v>
       </c>
@@ -8889,8 +10419,14 @@
         <v>150</v>
       </c>
       <c r="H253" s="30"/>
-    </row>
-    <row r="254" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I253" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J253" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" ht="14.25" customHeight="1">
       <c r="B254" s="159">
         <v>45159</v>
       </c>
@@ -8910,8 +10446,14 @@
         <v>6681.42</v>
       </c>
       <c r="H254" s="30"/>
-    </row>
-    <row r="255" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I254" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J254" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" ht="14.25" customHeight="1">
       <c r="B255" s="172"/>
       <c r="C255" s="163"/>
       <c r="D255" s="171"/>
@@ -8925,8 +10467,10 @@
         <f t="shared" si="3"/>
         <v>15096.15</v>
       </c>
-    </row>
-    <row r="256" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I255" s="199"/>
+      <c r="J255" s="199"/>
+    </row>
+    <row r="256" spans="2:10" ht="14.25" customHeight="1">
       <c r="B256" s="172"/>
       <c r="C256" s="171"/>
       <c r="D256" s="171"/>
@@ -8934,8 +10478,10 @@
       <c r="F256" s="173"/>
       <c r="G256" s="30"/>
       <c r="H256" s="30"/>
-    </row>
-    <row r="257" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I256" s="200"/>
+      <c r="J256" s="200"/>
+    </row>
+    <row r="257" spans="2:10" ht="14.25" customHeight="1">
       <c r="B257" s="190" t="s">
         <v>561</v>
       </c>
@@ -8945,8 +10491,10 @@
       <c r="F257" s="192"/>
       <c r="G257" s="2"/>
       <c r="H257" s="3"/>
-    </row>
-    <row r="258" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I257" s="197"/>
+      <c r="J257" s="197"/>
+    </row>
+    <row r="258" spans="2:10" ht="14.25" customHeight="1">
       <c r="B258" s="5" t="s">
         <v>2</v>
       </c>
@@ -8968,8 +10516,10 @@
       <c r="H258" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I258" s="198"/>
+      <c r="J258" s="198"/>
+    </row>
+    <row r="259" spans="2:10" ht="14.25" customHeight="1">
       <c r="B259" s="11"/>
       <c r="C259" s="12">
         <v>0</v>
@@ -8985,8 +10535,10 @@
       </c>
       <c r="G259" s="15"/>
       <c r="H259" s="114"/>
-    </row>
-    <row r="260" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I259" s="199"/>
+      <c r="J259" s="199"/>
+    </row>
+    <row r="260" spans="2:10" ht="14.25" customHeight="1">
       <c r="B260" s="159">
         <v>45174</v>
       </c>
@@ -9006,8 +10558,14 @@
       <c r="H260" s="148">
         <v>69</v>
       </c>
-    </row>
-    <row r="261" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I260" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J260" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" ht="14.25" customHeight="1">
       <c r="B261" s="159">
         <v>45175</v>
       </c>
@@ -9027,8 +10585,14 @@
       <c r="H261" s="148">
         <v>946.43</v>
       </c>
-    </row>
-    <row r="262" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I261" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J261" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" ht="14.25" customHeight="1">
       <c r="B262" s="165">
         <v>45175</v>
       </c>
@@ -9048,8 +10612,14 @@
       <c r="H262" s="175">
         <v>2179.71</v>
       </c>
-    </row>
-    <row r="263" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I262" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J262" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" ht="14.25" customHeight="1">
       <c r="B263" s="159">
         <v>45175</v>
       </c>
@@ -9069,8 +10639,14 @@
       <c r="H263" s="148">
         <v>712.14</v>
       </c>
-    </row>
-    <row r="264" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I263" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J263" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" ht="14.25" customHeight="1">
       <c r="B264" s="159">
         <v>45175</v>
       </c>
@@ -9090,8 +10666,14 @@
       <c r="H264" s="148">
         <v>1528.72</v>
       </c>
-    </row>
-    <row r="265" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I264" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J264" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" ht="14.25" customHeight="1">
       <c r="B265" s="159">
         <v>45175</v>
       </c>
@@ -9111,8 +10693,14 @@
       <c r="H265" s="148">
         <v>1134.6199999999999</v>
       </c>
-    </row>
-    <row r="266" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I265" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J265" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" ht="14.25" customHeight="1">
       <c r="B266" s="159">
         <v>45180</v>
       </c>
@@ -9132,8 +10720,14 @@
         <v>6325.49</v>
       </c>
       <c r="H266" s="31"/>
-    </row>
-    <row r="267" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I266" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J266" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" ht="14.25" customHeight="1">
       <c r="B267" s="177">
         <v>45181</v>
       </c>
@@ -9153,8 +10747,14 @@
         <v>14000</v>
       </c>
       <c r="H267" s="31"/>
-    </row>
-    <row r="268" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I267" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J267" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" ht="14.25" customHeight="1">
       <c r="B268" s="159">
         <v>45181</v>
       </c>
@@ -9174,8 +10774,14 @@
         <v>683.63</v>
       </c>
       <c r="H268" s="31"/>
-    </row>
-    <row r="269" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I268" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J268" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" ht="14.25" customHeight="1">
       <c r="B269" s="159">
         <v>45183</v>
       </c>
@@ -9195,8 +10801,14 @@
         <v>1456</v>
       </c>
       <c r="H269" s="31"/>
-    </row>
-    <row r="270" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I269" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J269" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" ht="14.25" customHeight="1">
       <c r="B270" s="159">
         <v>45184</v>
       </c>
@@ -9216,8 +10828,14 @@
       <c r="H270" s="148">
         <v>400</v>
       </c>
-    </row>
-    <row r="271" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I270" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J270" s="203" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" ht="14.25" customHeight="1">
       <c r="B271" s="159">
         <v>45184</v>
       </c>
@@ -9237,8 +10855,14 @@
       <c r="H271" s="148">
         <v>38.22</v>
       </c>
-    </row>
-    <row r="272" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I271" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J271" s="203" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" ht="14.25" customHeight="1">
       <c r="B272" s="159">
         <v>45184</v>
       </c>
@@ -9258,8 +10882,14 @@
       <c r="H272" s="148">
         <v>12400.02</v>
       </c>
-    </row>
-    <row r="273" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I272" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J272" s="203" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" ht="14.25" customHeight="1">
       <c r="B273" s="159">
         <v>45184</v>
       </c>
@@ -9279,8 +10909,14 @@
       <c r="H273" s="148">
         <v>4161.9799999999996</v>
       </c>
-    </row>
-    <row r="274" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I273" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J273" s="203" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" ht="14.25" customHeight="1">
       <c r="B274" s="172">
         <v>45188</v>
       </c>
@@ -9300,8 +10936,14 @@
         <v>6680.08</v>
       </c>
       <c r="H274" s="31"/>
-    </row>
-    <row r="275" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I274" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J274" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" ht="14.25" customHeight="1">
       <c r="B275" s="159">
         <v>45189</v>
       </c>
@@ -9321,8 +10963,14 @@
       <c r="H275" s="148">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="276" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I275" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J275" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" ht="14.25" customHeight="1">
       <c r="B276" s="159">
         <v>45189</v>
       </c>
@@ -9342,8 +10990,14 @@
       <c r="H276" s="148">
         <v>1168.24</v>
       </c>
-    </row>
-    <row r="277" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I276" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J276" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" ht="14.25" customHeight="1">
       <c r="B277" s="159">
         <v>45189</v>
       </c>
@@ -9363,8 +11017,14 @@
       <c r="H277" s="148">
         <v>2080.7399999999998</v>
       </c>
-    </row>
-    <row r="278" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I277" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J277" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" ht="14.25" customHeight="1">
       <c r="B278" s="159">
         <v>45189</v>
       </c>
@@ -9384,8 +11044,14 @@
       <c r="H278" s="148">
         <v>696.04</v>
       </c>
-    </row>
-    <row r="279" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I278" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J278" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" ht="14.25" customHeight="1">
       <c r="B279" s="159">
         <v>45189</v>
       </c>
@@ -9405,8 +11071,14 @@
       <c r="H279" s="148">
         <v>800</v>
       </c>
-    </row>
-    <row r="280" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I279" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J279" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" ht="14.25" customHeight="1">
       <c r="B280" s="159">
         <v>45190</v>
       </c>
@@ -9426,8 +11098,14 @@
         <v>4845</v>
       </c>
       <c r="H280" s="31"/>
-    </row>
-    <row r="281" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I280" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J280" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" ht="14.25" customHeight="1">
       <c r="B281" s="159">
         <v>45190</v>
       </c>
@@ -9447,8 +11125,14 @@
         <v>850</v>
       </c>
       <c r="H281" s="31"/>
-    </row>
-    <row r="282" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I281" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J281" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" ht="14.25" customHeight="1">
       <c r="B282" s="159">
         <v>45196</v>
       </c>
@@ -9468,8 +11152,14 @@
       <c r="H282" s="148">
         <v>483.03</v>
       </c>
-    </row>
-    <row r="283" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I282" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J282" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" ht="14.25" customHeight="1">
       <c r="B283" s="159">
         <v>45196</v>
       </c>
@@ -9489,8 +11179,14 @@
       <c r="H283" s="148">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="284" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I283" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J283" s="203" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" ht="14.25" customHeight="1">
       <c r="B284" s="159">
         <v>45198</v>
       </c>
@@ -9510,8 +11206,14 @@
       <c r="H284" s="148">
         <v>193.14</v>
       </c>
-    </row>
-    <row r="285" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I284" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J284" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" ht="14.25" customHeight="1">
       <c r="B285" s="159">
         <v>45198</v>
       </c>
@@ -9531,8 +11233,14 @@
       <c r="H285" s="148">
         <v>1800</v>
       </c>
-    </row>
-    <row r="286" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I285" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J285" s="203" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" ht="14.25" customHeight="1">
       <c r="B286" s="159">
         <v>45198</v>
       </c>
@@ -9552,8 +11260,14 @@
       <c r="H286" s="148">
         <v>240</v>
       </c>
-    </row>
-    <row r="287" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I286" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J286" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" ht="14.25" customHeight="1">
       <c r="B287" s="159">
         <v>45198</v>
       </c>
@@ -9573,8 +11287,14 @@
       <c r="H287" s="148">
         <v>260</v>
       </c>
-    </row>
-    <row r="288" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I287" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J287" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" ht="14.25" customHeight="1">
       <c r="B288" s="159">
         <v>45198</v>
       </c>
@@ -9594,8 +11314,14 @@
       <c r="H288" s="148">
         <v>15</v>
       </c>
-    </row>
-    <row r="289" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I288" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J288" s="203" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10" ht="14.25" customHeight="1">
       <c r="B289" s="159">
         <v>45198</v>
       </c>
@@ -9615,8 +11341,14 @@
       <c r="H289" s="148">
         <v>200</v>
       </c>
-    </row>
-    <row r="290" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I289" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J289" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="290" spans="2:10" ht="14.25" customHeight="1">
       <c r="B290" s="159">
         <v>45198</v>
       </c>
@@ -9636,8 +11368,14 @@
       <c r="H290" s="148">
         <v>240</v>
       </c>
-    </row>
-    <row r="291" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I290" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J290" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="291" spans="2:10" ht="14.25" customHeight="1">
       <c r="B291" s="121"/>
       <c r="C291" s="30"/>
       <c r="D291" s="30"/>
@@ -9651,8 +11389,10 @@
         <f t="shared" si="4"/>
         <v>31874.21</v>
       </c>
-    </row>
-    <row r="292" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I291" s="199"/>
+      <c r="J291" s="199"/>
+    </row>
+    <row r="292" spans="2:10" ht="14.25" customHeight="1">
       <c r="B292" s="121"/>
       <c r="C292" s="30"/>
       <c r="D292" s="30"/>
@@ -9660,8 +11400,10 @@
       <c r="F292" s="30"/>
       <c r="G292" s="30"/>
       <c r="H292" s="30"/>
-    </row>
-    <row r="293" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I292" s="200"/>
+      <c r="J292" s="200"/>
+    </row>
+    <row r="293" spans="2:10" ht="14.25" customHeight="1">
       <c r="B293" s="185">
         <v>45184</v>
       </c>
@@ -9673,14 +11415,16 @@
       <c r="F293" s="195"/>
       <c r="G293" s="195"/>
       <c r="H293" s="196"/>
-    </row>
-    <row r="294" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I293" s="201"/>
+      <c r="J293" s="201"/>
+    </row>
+    <row r="294" spans="2:10" ht="14.25" customHeight="1">
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="2:8" ht="14.25" customHeight="1">
+    <row r="295" spans="2:10" ht="14.25" customHeight="1">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="2:8" ht="14.25" customHeight="1">
+    <row r="296" spans="2:10" ht="14.25" customHeight="1">
       <c r="B296" s="190" t="s">
         <v>643</v>
       </c>
@@ -9690,8 +11434,10 @@
       <c r="F296" s="192"/>
       <c r="G296" s="2"/>
       <c r="H296" s="3"/>
-    </row>
-    <row r="297" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I296" s="197"/>
+      <c r="J296" s="197"/>
+    </row>
+    <row r="297" spans="2:10" ht="14.25" customHeight="1">
       <c r="B297" s="5" t="s">
         <v>2</v>
       </c>
@@ -9713,8 +11459,10 @@
       <c r="H297" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="298" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I297" s="198"/>
+      <c r="J297" s="198"/>
+    </row>
+    <row r="298" spans="2:10" ht="14.25" customHeight="1">
       <c r="B298" s="11"/>
       <c r="C298" s="12">
         <v>0</v>
@@ -9730,8 +11478,10 @@
       </c>
       <c r="G298" s="15"/>
       <c r="H298" s="114"/>
-    </row>
-    <row r="299" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I298" s="199"/>
+      <c r="J298" s="199"/>
+    </row>
+    <row r="299" spans="2:10" ht="14.25" customHeight="1">
       <c r="B299" s="159">
         <v>45202</v>
       </c>
@@ -9751,8 +11501,14 @@
       <c r="H299" s="148">
         <v>250</v>
       </c>
-    </row>
-    <row r="300" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I299" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J299" s="203" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" ht="14.25" customHeight="1">
       <c r="B300" s="159">
         <v>45204</v>
       </c>
@@ -9772,8 +11528,14 @@
       <c r="H300" s="148">
         <v>1800</v>
       </c>
-    </row>
-    <row r="301" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I300" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J300" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="301" spans="2:10" ht="14.25" customHeight="1">
       <c r="B301" s="159">
         <v>45204</v>
       </c>
@@ -9793,8 +11555,14 @@
       <c r="H301" s="148">
         <v>523</v>
       </c>
-    </row>
-    <row r="302" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I301" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J301" s="203" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="302" spans="2:10" ht="14.25" customHeight="1">
       <c r="B302" s="159">
         <v>45204</v>
       </c>
@@ -9814,8 +11582,14 @@
       <c r="H302" s="148">
         <v>69</v>
       </c>
-    </row>
-    <row r="303" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I302" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J302" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="303" spans="2:10" ht="14.25" customHeight="1">
       <c r="B303" s="159">
         <v>45205</v>
       </c>
@@ -9835,8 +11609,14 @@
       <c r="H303" s="148">
         <v>2083.41</v>
       </c>
-    </row>
-    <row r="304" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I303" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J303" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10" ht="14.25" customHeight="1">
       <c r="B304" s="159">
         <v>45205</v>
       </c>
@@ -9856,8 +11636,14 @@
       <c r="H304" s="148">
         <v>835.64</v>
       </c>
-    </row>
-    <row r="305" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I304" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J304" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="305" spans="2:10" ht="14.25" customHeight="1">
       <c r="B305" s="159">
         <v>45205</v>
       </c>
@@ -9877,8 +11663,14 @@
       <c r="H305" s="148">
         <v>1392.28</v>
       </c>
-    </row>
-    <row r="306" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I305" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J305" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="306" spans="2:10" ht="14.25" customHeight="1">
       <c r="B306" s="159">
         <v>45205</v>
       </c>
@@ -9898,8 +11690,14 @@
       <c r="H306" s="148">
         <v>1335</v>
       </c>
-    </row>
-    <row r="307" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I306" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J306" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="307" spans="2:10" ht="14.25" customHeight="1">
       <c r="B307" s="159">
         <v>45205</v>
       </c>
@@ -9919,8 +11717,14 @@
       <c r="H307" s="148">
         <v>1335</v>
       </c>
-    </row>
-    <row r="308" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I307" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J307" s="203" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="308" spans="2:10" ht="14.25" customHeight="1">
       <c r="B308" s="159">
         <v>45208</v>
       </c>
@@ -9940,8 +11744,14 @@
         <v>300</v>
       </c>
       <c r="H308" s="31"/>
-    </row>
-    <row r="309" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I308" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J308" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="309" spans="2:10" ht="14.25" customHeight="1">
       <c r="B309" s="159">
         <v>45208</v>
       </c>
@@ -9961,8 +11771,14 @@
       <c r="H309" s="148">
         <v>955.38</v>
       </c>
-    </row>
-    <row r="310" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I309" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J309" s="203" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="310" spans="2:10" ht="14.25" customHeight="1">
       <c r="B310" s="159">
         <v>45208</v>
       </c>
@@ -9982,8 +11798,14 @@
       <c r="H310" s="148">
         <v>39.76</v>
       </c>
-    </row>
-    <row r="311" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I310" s="202" t="s">
+        <v>856</v>
+      </c>
+      <c r="J310" s="203" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="311" spans="2:10" ht="14.25" customHeight="1">
       <c r="B311" s="159">
         <v>45209</v>
       </c>
@@ -10003,8 +11825,14 @@
         <v>2172.1999999999998</v>
       </c>
       <c r="H311" s="31"/>
-    </row>
-    <row r="312" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I311" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J311" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10" ht="14.25" customHeight="1">
       <c r="B312" s="159">
         <v>45215</v>
       </c>
@@ -10024,8 +11852,14 @@
         <v>180</v>
       </c>
       <c r="H312" s="31"/>
-    </row>
-    <row r="313" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I312" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J312" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="313" spans="2:10" ht="14.25" customHeight="1">
       <c r="B313" s="159">
         <v>45215</v>
       </c>
@@ -10045,8 +11879,14 @@
         <v>720</v>
       </c>
       <c r="H313" s="31"/>
-    </row>
-    <row r="314" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I313" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J313" s="205" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="314" spans="2:10" ht="14.25" customHeight="1">
       <c r="B314" s="159">
         <v>45215</v>
       </c>
@@ -10066,8 +11906,14 @@
       <c r="H314" s="148">
         <v>955.44</v>
       </c>
-    </row>
-    <row r="315" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I314" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J314" s="203" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="315" spans="2:10" ht="14.25" customHeight="1">
       <c r="B315" s="159">
         <v>45215</v>
       </c>
@@ -10087,8 +11933,14 @@
       <c r="H315" s="148">
         <v>325.62</v>
       </c>
-    </row>
-    <row r="316" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I315" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J315" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="316" spans="2:10" ht="14.25" customHeight="1">
       <c r="B316" s="159">
         <v>45219</v>
       </c>
@@ -10108,8 +11960,14 @@
       <c r="H316" s="148">
         <v>1192.48</v>
       </c>
-    </row>
-    <row r="317" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I316" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J316" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="317" spans="2:10" ht="14.25" customHeight="1">
       <c r="B317" s="159">
         <v>45219</v>
       </c>
@@ -10129,8 +11987,14 @@
       <c r="H317" s="148">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="318" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I317" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J317" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="318" spans="2:10" ht="14.25" customHeight="1">
       <c r="B318" s="159">
         <v>45219</v>
       </c>
@@ -10150,8 +12014,14 @@
       <c r="H318" s="148">
         <v>1734.06</v>
       </c>
-    </row>
-    <row r="319" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I318" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J318" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="319" spans="2:10" ht="14.25" customHeight="1">
       <c r="B319" s="159">
         <v>45222</v>
       </c>
@@ -10171,8 +12041,14 @@
         <v>4385</v>
       </c>
       <c r="H319" s="31"/>
-    </row>
-    <row r="320" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I319" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J319" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="320" spans="2:10" ht="14.25" customHeight="1">
       <c r="B320" s="159">
         <v>45226</v>
       </c>
@@ -10192,8 +12068,14 @@
         <v>150</v>
       </c>
       <c r="H320" s="31"/>
-    </row>
-    <row r="321" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I320" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J320" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="321" spans="2:10" ht="14.25" customHeight="1">
       <c r="B321" s="159">
         <v>45226</v>
       </c>
@@ -10213,8 +12095,14 @@
         <v>4617.58</v>
       </c>
       <c r="H321" s="31"/>
-    </row>
-    <row r="322" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I321" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J321" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="322" spans="2:10" ht="14.25" customHeight="1">
       <c r="B322" s="159">
         <v>45229</v>
       </c>
@@ -10234,8 +12122,14 @@
       <c r="H322" s="148">
         <v>447.03</v>
       </c>
-    </row>
-    <row r="323" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I322" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J322" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="323" spans="2:10" ht="14.25" customHeight="1">
       <c r="B323" s="159">
         <v>45229</v>
       </c>
@@ -10255,8 +12149,14 @@
       <c r="H323" s="148">
         <v>400</v>
       </c>
-    </row>
-    <row r="324" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I323" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J323" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="324" spans="2:10" ht="14.25" customHeight="1">
       <c r="B324" s="159">
         <v>45229</v>
       </c>
@@ -10276,8 +12176,14 @@
       <c r="H324" s="148">
         <v>1000</v>
       </c>
-    </row>
-    <row r="325" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I324" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J324" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="325" spans="2:10" ht="14.25" customHeight="1">
       <c r="B325" s="159">
         <v>45229</v>
       </c>
@@ -10297,8 +12203,14 @@
       <c r="H325" s="148">
         <v>193.14</v>
       </c>
-    </row>
-    <row r="326" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I325" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J325" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="326" spans="2:10" ht="14.25" customHeight="1">
       <c r="B326" s="121"/>
       <c r="C326" s="30"/>
       <c r="D326" s="30"/>
@@ -10312,8 +12224,10 @@
         <f>SUM(H299:H325)</f>
         <v>16950.82</v>
       </c>
-    </row>
-    <row r="327" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I326" s="199"/>
+      <c r="J326" s="199"/>
+    </row>
+    <row r="327" spans="2:10" ht="14.25" customHeight="1">
       <c r="B327" s="121"/>
       <c r="C327" s="30"/>
       <c r="D327" s="79"/>
@@ -10321,8 +12235,10 @@
       <c r="F327" s="30"/>
       <c r="G327" s="30"/>
       <c r="H327" s="30"/>
-    </row>
-    <row r="328" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I327" s="200"/>
+      <c r="J327" s="200"/>
+    </row>
+    <row r="328" spans="2:10" ht="14.25" customHeight="1">
       <c r="B328" s="190" t="s">
         <v>708</v>
       </c>
@@ -10332,8 +12248,10 @@
       <c r="F328" s="192"/>
       <c r="G328" s="2"/>
       <c r="H328" s="3"/>
-    </row>
-    <row r="329" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I328" s="197"/>
+      <c r="J328" s="197"/>
+    </row>
+    <row r="329" spans="2:10" ht="14.25" customHeight="1">
       <c r="B329" s="5" t="s">
         <v>2</v>
       </c>
@@ -10355,8 +12273,10 @@
       <c r="H329" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="330" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I329" s="198"/>
+      <c r="J329" s="198"/>
+    </row>
+    <row r="330" spans="2:10" ht="14.25" customHeight="1">
       <c r="B330" s="11"/>
       <c r="C330" s="12">
         <v>0</v>
@@ -10372,8 +12292,10 @@
       </c>
       <c r="G330" s="15"/>
       <c r="H330" s="114"/>
-    </row>
-    <row r="331" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I330" s="199"/>
+      <c r="J330" s="199"/>
+    </row>
+    <row r="331" spans="2:10" ht="14.25" customHeight="1">
       <c r="B331" s="159">
         <v>45231</v>
       </c>
@@ -10393,8 +12315,14 @@
       <c r="H331" s="148">
         <v>240</v>
       </c>
-    </row>
-    <row r="332" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I331" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J331" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="332" spans="2:10" ht="14.25" customHeight="1">
       <c r="B332" s="159">
         <v>45231</v>
       </c>
@@ -10414,8 +12342,14 @@
       <c r="H332" s="148">
         <v>300</v>
       </c>
-    </row>
-    <row r="333" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I332" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J332" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="333" spans="2:10" ht="14.25" customHeight="1">
       <c r="B333" s="159">
         <v>45231</v>
       </c>
@@ -10435,8 +12369,14 @@
       <c r="H333" s="148">
         <v>200</v>
       </c>
-    </row>
-    <row r="334" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I333" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J333" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="334" spans="2:10" ht="14.25" customHeight="1">
       <c r="B334" s="159">
         <v>45233</v>
       </c>
@@ -10456,8 +12396,14 @@
       <c r="H334" s="148">
         <v>288</v>
       </c>
-    </row>
-    <row r="335" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I334" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J334" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="335" spans="2:10" ht="14.25" customHeight="1">
       <c r="B335" s="159">
         <v>45236</v>
       </c>
@@ -10477,8 +12423,14 @@
       <c r="H335" s="148">
         <v>69</v>
       </c>
-    </row>
-    <row r="336" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I335" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J335" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="336" spans="2:10" ht="14.25" customHeight="1">
       <c r="B336" s="159">
         <v>45237</v>
       </c>
@@ -10498,8 +12450,14 @@
       <c r="H336" s="148">
         <v>2000</v>
       </c>
-    </row>
-    <row r="337" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I336" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J336" s="203" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="337" spans="2:11" ht="14.25" customHeight="1">
       <c r="B337" s="159">
         <v>45237</v>
       </c>
@@ -10519,8 +12477,14 @@
       <c r="H337" s="148">
         <v>2302.09</v>
       </c>
-    </row>
-    <row r="338" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I337" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J337" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="338" spans="2:11" ht="14.25" customHeight="1">
       <c r="B338" s="159">
         <v>45237</v>
       </c>
@@ -10540,8 +12504,14 @@
       <c r="H338" s="148">
         <v>959.29</v>
       </c>
-    </row>
-    <row r="339" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I338" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J338" s="203" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="339" spans="2:11" ht="14.25" customHeight="1">
       <c r="B339" s="159">
         <v>45237</v>
       </c>
@@ -10561,8 +12531,14 @@
       <c r="H339" s="148">
         <v>1538.81</v>
       </c>
-    </row>
-    <row r="340" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I339" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J339" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="340" spans="2:11" ht="14.25" customHeight="1">
       <c r="B340" s="159">
         <v>45237</v>
       </c>
@@ -10582,8 +12558,14 @@
       <c r="H340" s="148">
         <v>814.33</v>
       </c>
-    </row>
-    <row r="341" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I340" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J340" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="341" spans="2:11" ht="14.25" customHeight="1">
       <c r="B341" s="159">
         <v>45237</v>
       </c>
@@ -10603,8 +12585,14 @@
       <c r="H341" s="148">
         <v>523</v>
       </c>
-    </row>
-    <row r="342" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I341" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J341" s="203" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="342" spans="2:11" ht="14.25" customHeight="1">
       <c r="B342" s="159">
         <v>45240</v>
       </c>
@@ -10624,8 +12612,14 @@
         <v>5575.38</v>
       </c>
       <c r="H342" s="31"/>
-    </row>
-    <row r="343" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I342" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J342" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="343" spans="2:11" ht="14.25" customHeight="1">
       <c r="B343" s="159">
         <v>45243</v>
       </c>
@@ -10645,11 +12639,17 @@
         <v>120</v>
       </c>
       <c r="H343" s="31"/>
-      <c r="I343" s="4" t="s">
+      <c r="I343" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J343" s="203" t="s">
+        <v>844</v>
+      </c>
+      <c r="K343" s="4" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="344" spans="2:9" ht="14.25" customHeight="1">
+    <row r="344" spans="2:11" ht="14.25" customHeight="1">
       <c r="B344" s="159">
         <v>45250</v>
       </c>
@@ -10669,8 +12669,14 @@
         <v>5722.95</v>
       </c>
       <c r="H344" s="31"/>
-    </row>
-    <row r="345" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I344" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J344" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="345" spans="2:11" ht="14.25" customHeight="1">
       <c r="B345" s="159">
         <v>45250</v>
       </c>
@@ -10690,8 +12696,14 @@
       <c r="H345" s="148">
         <v>696.04</v>
       </c>
-    </row>
-    <row r="346" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I345" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J345" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11" ht="14.25" customHeight="1">
       <c r="B346" s="159">
         <v>45250</v>
       </c>
@@ -10711,8 +12723,14 @@
       <c r="H346" s="148">
         <v>800</v>
       </c>
-    </row>
-    <row r="347" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I346" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J346" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="347" spans="2:11" ht="14.25" customHeight="1">
       <c r="B347" s="159">
         <v>45250</v>
       </c>
@@ -10732,8 +12750,14 @@
       <c r="H347" s="148">
         <v>1788.79</v>
       </c>
-    </row>
-    <row r="348" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I347" s="202" t="s">
+        <v>848</v>
+      </c>
+      <c r="J347" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="348" spans="2:11" ht="14.25" customHeight="1">
       <c r="B348" s="159">
         <v>45250</v>
       </c>
@@ -10753,8 +12777,14 @@
       <c r="H348" s="148">
         <v>1170.72</v>
       </c>
-    </row>
-    <row r="349" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I348" s="204" t="s">
+        <v>829</v>
+      </c>
+      <c r="J348" s="206" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11" ht="14.25" customHeight="1">
       <c r="B349" s="159">
         <v>45250</v>
       </c>
@@ -10774,8 +12804,14 @@
       <c r="H349" s="148">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="350" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I349" s="202" t="s">
+        <v>837</v>
+      </c>
+      <c r="J349" s="203" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" ht="14.25" customHeight="1">
       <c r="B350" s="159">
         <v>45251</v>
       </c>
@@ -10795,8 +12831,14 @@
         <v>3707.5</v>
       </c>
       <c r="H350" s="31"/>
-    </row>
-    <row r="351" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I350" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J350" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="351" spans="2:11" ht="14.25" customHeight="1">
       <c r="B351" s="159">
         <v>45260</v>
       </c>
@@ -10816,8 +12858,14 @@
       <c r="H351" s="148">
         <v>1045</v>
       </c>
-    </row>
-    <row r="352" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I351" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J351" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="352" spans="2:11" ht="14.25" customHeight="1">
       <c r="B352" s="159">
         <v>45260</v>
       </c>
@@ -10837,8 +12885,14 @@
       <c r="H352" s="148">
         <v>362.52</v>
       </c>
-    </row>
-    <row r="353" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I352" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J352" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="353" spans="2:10" ht="14.25" customHeight="1">
       <c r="B353" s="159">
         <v>45260</v>
       </c>
@@ -10858,8 +12912,14 @@
       <c r="H353" s="148">
         <v>507.52</v>
       </c>
-    </row>
-    <row r="354" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I353" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J353" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="354" spans="2:10" ht="14.25" customHeight="1">
       <c r="B354" s="159">
         <v>45260</v>
       </c>
@@ -10879,8 +12939,14 @@
       <c r="H354" s="148">
         <v>416.66</v>
       </c>
-    </row>
-    <row r="355" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I354" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J354" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="355" spans="2:10" ht="14.25" customHeight="1">
       <c r="B355" s="159">
         <v>45260</v>
       </c>
@@ -10900,8 +12966,14 @@
       <c r="H355" s="148">
         <v>870.05</v>
       </c>
-    </row>
-    <row r="356" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I355" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J355" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="356" spans="2:10" ht="14.25" customHeight="1">
       <c r="B356" s="159">
         <v>45260</v>
       </c>
@@ -10921,8 +12993,14 @@
       <c r="H356" s="148">
         <v>240</v>
       </c>
-    </row>
-    <row r="357" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I356" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J356" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="357" spans="2:10" ht="14.25" customHeight="1">
       <c r="B357" s="159">
         <v>45260</v>
       </c>
@@ -10942,8 +13020,14 @@
       <c r="H357" s="148">
         <v>192</v>
       </c>
-    </row>
-    <row r="358" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I357" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J357" s="203" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10" ht="14.25" customHeight="1">
       <c r="B358" s="159">
         <v>45260</v>
       </c>
@@ -10963,8 +13047,14 @@
       <c r="H358" s="148">
         <v>200</v>
       </c>
-    </row>
-    <row r="359" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I358" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J358" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="359" spans="2:10" ht="14.25" customHeight="1">
       <c r="B359" s="121"/>
       <c r="C359" s="30"/>
       <c r="D359" s="187"/>
@@ -10978,11 +13068,13 @@
         <f t="shared" si="5"/>
         <v>17608.400000000001</v>
       </c>
-    </row>
-    <row r="360" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I359" s="199"/>
+      <c r="J359" s="199"/>
+    </row>
+    <row r="360" spans="2:10" ht="14.25" customHeight="1">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="2:8" ht="14.25" customHeight="1">
+    <row r="361" spans="2:10" ht="14.25" customHeight="1">
       <c r="B361" s="190" t="s">
         <v>773</v>
       </c>
@@ -10992,8 +13084,10 @@
       <c r="F361" s="192"/>
       <c r="G361" s="2"/>
       <c r="H361" s="3"/>
-    </row>
-    <row r="362" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I361" s="197"/>
+      <c r="J361" s="197"/>
+    </row>
+    <row r="362" spans="2:10" ht="14.25" customHeight="1">
       <c r="B362" s="5" t="s">
         <v>2</v>
       </c>
@@ -11015,8 +13109,10 @@
       <c r="H362" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="363" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I362" s="198"/>
+      <c r="J362" s="198"/>
+    </row>
+    <row r="363" spans="2:10" ht="14.25" customHeight="1">
       <c r="B363" s="11"/>
       <c r="C363" s="12">
         <v>0</v>
@@ -11032,8 +13128,10 @@
       </c>
       <c r="G363" s="15"/>
       <c r="H363" s="114"/>
-    </row>
-    <row r="364" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I363" s="199"/>
+      <c r="J363" s="199"/>
+    </row>
+    <row r="364" spans="2:10" ht="14.25" customHeight="1">
       <c r="B364" s="159">
         <v>45264</v>
       </c>
@@ -11053,8 +13151,14 @@
         <v>425</v>
       </c>
       <c r="H364" s="31"/>
-    </row>
-    <row r="365" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I364" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J364" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="365" spans="2:10" ht="14.25" customHeight="1">
       <c r="B365" s="159">
         <v>45265</v>
       </c>
@@ -11074,8 +13178,14 @@
       <c r="H365" s="148">
         <v>69</v>
       </c>
-    </row>
-    <row r="366" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I365" s="202" t="s">
+        <v>832</v>
+      </c>
+      <c r="J365" s="203" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="366" spans="2:10" ht="14.25" customHeight="1">
       <c r="B366" s="159">
         <v>45266</v>
       </c>
@@ -11095,8 +13205,14 @@
       <c r="H366" s="148">
         <v>2545.0500000000002</v>
       </c>
-    </row>
-    <row r="367" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I366" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J366" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="367" spans="2:10" ht="14.25" customHeight="1">
       <c r="B367" s="159">
         <v>45266</v>
       </c>
@@ -11116,8 +13232,14 @@
       <c r="H367" s="148">
         <v>1558.72</v>
       </c>
-    </row>
-    <row r="368" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I367" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J367" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="368" spans="2:10" ht="14.25" customHeight="1">
       <c r="B368" s="159">
         <v>45266</v>
       </c>
@@ -11137,8 +13259,14 @@
       <c r="H368" s="148">
         <v>1486.32</v>
       </c>
-    </row>
-    <row r="369" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I368" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J368" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="369" spans="2:10" ht="14.25" customHeight="1">
       <c r="B369" s="159">
         <v>45266</v>
       </c>
@@ -11158,8 +13286,14 @@
       <c r="H369" s="148">
         <v>1722.76</v>
       </c>
-    </row>
-    <row r="370" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I369" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J369" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="370" spans="2:10" ht="14.25" customHeight="1">
       <c r="B370" s="165">
         <v>45271</v>
       </c>
@@ -11179,8 +13313,14 @@
         <v>2928.48</v>
       </c>
       <c r="H370" s="31"/>
-    </row>
-    <row r="371" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I370" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J370" s="205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="371" spans="2:10" ht="14.25" customHeight="1">
       <c r="B371" s="159">
         <v>45278</v>
       </c>
@@ -11200,8 +13340,14 @@
         <v>150</v>
       </c>
       <c r="H371" s="31"/>
-    </row>
-    <row r="372" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I371" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J371" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="372" spans="2:10" ht="14.25" customHeight="1">
       <c r="B372" s="159">
         <v>45278</v>
       </c>
@@ -11221,8 +13367,14 @@
         <v>300</v>
       </c>
       <c r="H372" s="31"/>
-    </row>
-    <row r="373" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I372" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J372" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="373" spans="2:10" ht="14.25" customHeight="1">
       <c r="B373" s="165">
         <v>45278</v>
       </c>
@@ -11242,8 +13394,14 @@
         <v>150</v>
       </c>
       <c r="H373" s="31"/>
-    </row>
-    <row r="374" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I373" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J373" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="374" spans="2:10" ht="14.25" customHeight="1">
       <c r="B374" s="159">
         <v>45280</v>
       </c>
@@ -11263,8 +13421,14 @@
       <c r="H374" s="148">
         <v>1187.57</v>
       </c>
-    </row>
-    <row r="375" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I374" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J374" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="375" spans="2:10" ht="14.25" customHeight="1">
       <c r="B375" s="159">
         <v>45280</v>
       </c>
@@ -11284,8 +13448,14 @@
         <v>1105.06</v>
       </c>
       <c r="H375" s="31"/>
-    </row>
-    <row r="376" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I375" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J375" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="376" spans="2:10" ht="14.25" customHeight="1">
       <c r="B376" s="159">
         <v>45280</v>
       </c>
@@ -11305,8 +13475,14 @@
       <c r="H376" s="148">
         <v>309.83999999999997</v>
       </c>
-    </row>
-    <row r="377" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I376" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J376" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="377" spans="2:10" ht="14.25" customHeight="1">
       <c r="B377" s="159">
         <v>45280</v>
       </c>
@@ -11326,8 +13502,14 @@
       <c r="H377" s="148">
         <v>696.04</v>
       </c>
-    </row>
-    <row r="378" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I377" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J377" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="378" spans="2:10" ht="14.25" customHeight="1">
       <c r="B378" s="159">
         <v>45280</v>
       </c>
@@ -11347,8 +13529,14 @@
       <c r="H378" s="148">
         <v>575.67999999999995</v>
       </c>
-    </row>
-    <row r="379" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I378" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J378" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="379" spans="2:10" ht="14.25" customHeight="1">
       <c r="B379" s="159">
         <v>45280</v>
       </c>
@@ -11368,8 +13556,14 @@
       <c r="H379" s="148">
         <v>800</v>
       </c>
-    </row>
-    <row r="380" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I379" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J379" s="203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="380" spans="2:10" ht="14.25" customHeight="1">
       <c r="B380" s="159">
         <v>45280</v>
       </c>
@@ -11389,8 +13583,14 @@
       <c r="H380" s="148">
         <v>134.13999999999999</v>
       </c>
-    </row>
-    <row r="381" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I380" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J380" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="381" spans="2:10" ht="14.25" customHeight="1">
       <c r="B381" s="159">
         <v>45280</v>
       </c>
@@ -11410,8 +13610,14 @@
       <c r="H381" s="148">
         <v>134.13999999999999</v>
       </c>
-    </row>
-    <row r="382" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I381" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J381" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="382" spans="2:10" ht="14.25" customHeight="1">
       <c r="B382" s="159">
         <v>45280</v>
       </c>
@@ -11431,8 +13637,14 @@
       <c r="H382" s="148">
         <v>431.42</v>
       </c>
-    </row>
-    <row r="383" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I382" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J382" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="383" spans="2:10" ht="14.25" customHeight="1">
       <c r="B383" s="159">
         <v>45280</v>
       </c>
@@ -11452,8 +13664,14 @@
       <c r="H383" s="148">
         <v>733.56</v>
       </c>
-    </row>
-    <row r="384" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I383" s="202" t="s">
+        <v>829</v>
+      </c>
+      <c r="J383" s="203" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="384" spans="2:10" ht="14.25" customHeight="1">
       <c r="B384" s="159">
         <v>45280</v>
       </c>
@@ -11473,8 +13691,14 @@
         <v>6678.96</v>
       </c>
       <c r="H384" s="30"/>
-    </row>
-    <row r="385" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I384" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J384" s="205" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="385" spans="2:10" ht="14.25" customHeight="1">
       <c r="B385" s="159">
         <v>45281</v>
       </c>
@@ -11494,8 +13718,14 @@
         <v>2917.5</v>
       </c>
       <c r="H385" s="30"/>
-    </row>
-    <row r="386" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I385" s="204" t="s">
+        <v>840</v>
+      </c>
+      <c r="J385" s="205" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="386" spans="2:10" ht="14.25" customHeight="1">
       <c r="B386" s="159">
         <v>45288</v>
       </c>
@@ -11515,8 +13745,14 @@
         <v>1884.17</v>
       </c>
       <c r="H386" s="30"/>
-    </row>
-    <row r="387" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I386" s="202" t="s">
+        <v>842</v>
+      </c>
+      <c r="J386" s="203" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="387" spans="2:10" ht="14.25" customHeight="1">
       <c r="B387" s="121"/>
       <c r="C387" s="30"/>
       <c r="D387" s="30"/>
@@ -11524,8 +13760,10 @@
       <c r="F387" s="30"/>
       <c r="G387" s="30"/>
       <c r="H387" s="30"/>
-    </row>
-    <row r="388" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I387" s="200"/>
+      <c r="J387" s="200"/>
+    </row>
+    <row r="388" spans="2:10" ht="14.25" customHeight="1">
       <c r="B388" s="121"/>
       <c r="C388" s="30"/>
       <c r="D388" s="30"/>
@@ -11533,8 +13771,10 @@
       <c r="F388" s="30"/>
       <c r="G388" s="30"/>
       <c r="H388" s="30"/>
-    </row>
-    <row r="389" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I388" s="200"/>
+      <c r="J388" s="200"/>
+    </row>
+    <row r="389" spans="2:10" ht="14.25" customHeight="1">
       <c r="B389" s="121"/>
       <c r="C389" s="30"/>
       <c r="D389" s="30"/>
@@ -11542,8 +13782,10 @@
       <c r="F389" s="30"/>
       <c r="G389" s="30"/>
       <c r="H389" s="30"/>
-    </row>
-    <row r="390" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I389" s="200"/>
+      <c r="J389" s="200"/>
+    </row>
+    <row r="390" spans="2:10" ht="14.25" customHeight="1">
       <c r="B390" s="121"/>
       <c r="C390" s="30"/>
       <c r="D390" s="30"/>
@@ -11551,8 +13793,10 @@
       <c r="F390" s="30"/>
       <c r="G390" s="30"/>
       <c r="H390" s="30"/>
-    </row>
-    <row r="391" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I390" s="200"/>
+      <c r="J390" s="200"/>
+    </row>
+    <row r="391" spans="2:10" ht="14.25" customHeight="1">
       <c r="B391" s="121"/>
       <c r="C391" s="30"/>
       <c r="D391" s="189"/>
@@ -11560,8 +13804,10 @@
       <c r="F391" s="30"/>
       <c r="G391" s="30"/>
       <c r="H391" s="30"/>
-    </row>
-    <row r="392" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I391" s="200"/>
+      <c r="J391" s="200"/>
+    </row>
+    <row r="392" spans="2:10" ht="14.25" customHeight="1">
       <c r="B392" s="121"/>
       <c r="C392" s="30"/>
       <c r="D392" s="189"/>
@@ -11569,8 +13815,10 @@
       <c r="F392" s="30"/>
       <c r="G392" s="30"/>
       <c r="H392" s="30"/>
-    </row>
-    <row r="393" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I392" s="200"/>
+      <c r="J392" s="200"/>
+    </row>
+    <row r="393" spans="2:10" ht="14.25" customHeight="1">
       <c r="B393" s="121"/>
       <c r="C393" s="30"/>
       <c r="D393" s="30"/>
@@ -11578,8 +13826,10 @@
       <c r="F393" s="30"/>
       <c r="G393" s="30"/>
       <c r="H393" s="30"/>
-    </row>
-    <row r="394" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I393" s="200"/>
+      <c r="J393" s="200"/>
+    </row>
+    <row r="394" spans="2:10" ht="14.25" customHeight="1">
       <c r="B394" s="121"/>
       <c r="C394" s="30"/>
       <c r="D394" s="30"/>
@@ -11587,8 +13837,10 @@
       <c r="F394" s="30"/>
       <c r="G394" s="30"/>
       <c r="H394" s="30"/>
-    </row>
-    <row r="395" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I394" s="200"/>
+      <c r="J394" s="200"/>
+    </row>
+    <row r="395" spans="2:10" ht="14.25" customHeight="1">
       <c r="B395" s="121"/>
       <c r="C395" s="30"/>
       <c r="D395" s="30"/>
@@ -11596,21 +13848,23 @@
       <c r="F395" s="30"/>
       <c r="G395" s="30"/>
       <c r="H395" s="30"/>
-    </row>
-    <row r="396" spans="2:8" ht="14.25" customHeight="1">
+      <c r="I395" s="200"/>
+      <c r="J395" s="200"/>
+    </row>
+    <row r="396" spans="2:10" ht="14.25" customHeight="1">
       <c r="B396" s="1"/>
     </row>
-    <row r="397" spans="2:8" ht="14.25" customHeight="1">
+    <row r="397" spans="2:10" ht="14.25" customHeight="1">
       <c r="B397" s="1"/>
     </row>
-    <row r="398" spans="2:8" ht="14.25" customHeight="1">
+    <row r="398" spans="2:10" ht="14.25" customHeight="1">
       <c r="B398" s="1"/>
       <c r="D398" s="108"/>
     </row>
-    <row r="399" spans="2:8" ht="14.25" customHeight="1">
+    <row r="399" spans="2:10" ht="14.25" customHeight="1">
       <c r="B399" s="1"/>
     </row>
-    <row r="400" spans="2:8" ht="14.25" customHeight="1">
+    <row r="400" spans="2:10" ht="14.25" customHeight="1">
       <c r="B400" s="1"/>
     </row>
     <row r="401" spans="2:2" ht="14.25" customHeight="1">
